--- a/examples/oucru/oucru-md/resources/outputs/templates/ccfgs_md_data_fixed.xlsx
+++ b/examples/oucru/oucru-md/resources/outputs/templates/ccfgs_md_data_fixed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-md\resources\outputs\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Desktop\repositories\datablend\examples\oucru\oucru-md\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601747E4-DACE-4934-AAE3-C7DC9E2C4DBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DCDF19-6F06-40C7-8F3D-3DB2AFA59A79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MD_lab" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="557">
   <si>
     <t>from_name</t>
   </si>
@@ -671,9 +671,6 @@
     <t>{'No': 'V_1', 'Yes': 'V_2'}</t>
   </si>
   <si>
-    <t>{'No': 'V_1', 'Mucose': 'V_2', 'Skin': 'V_3', 'Other': 'V_4'}</t>
-  </si>
-  <si>
     <t>{'24h after admission': 'V_1'}</t>
   </si>
   <si>
@@ -1689,6 +1686,24 @@
   </si>
   <si>
     <t>event_serology</t>
+  </si>
+  <si>
+    <t>date of illness at admission!</t>
+  </si>
+  <si>
+    <t>bleeding_vaginal</t>
+  </si>
+  <si>
+    <t>chest_sound_left</t>
+  </si>
+  <si>
+    <t>chest_sound_right</t>
+  </si>
+  <si>
+    <t>medication_regular</t>
+  </si>
+  <si>
+    <t>{'No': False, 'Mucose': True, 'Skin': True, 'Other': True}</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1734,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1741,6 +1756,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,7 +1804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1800,6 +1821,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2141,7 +2163,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,7 +2213,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2248,18 +2270,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
+      <c r="F5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2279,7 +2304,7 @@
         <v>67</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2437,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2554,7 +2579,7 @@
         <v>72</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2574,7 +2599,7 @@
         <v>72</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2594,7 +2619,7 @@
         <v>72</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2614,7 +2639,7 @@
         <v>72</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2634,7 +2659,7 @@
         <v>72</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2642,7 +2667,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>63</v>
@@ -2654,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2714,7 +2739,7 @@
         <v>73</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2734,7 +2759,7 @@
         <v>73</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2754,7 +2779,7 @@
         <v>73</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2774,7 +2799,7 @@
         <v>73</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2794,7 +2819,7 @@
         <v>73</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2814,7 +2839,7 @@
         <v>73</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2895,10 +2920,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -2909,16 +2934,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -2940,16 +2965,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -2957,10 +2982,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C6" t="s">
         <v>59</v>
@@ -2980,7 +3005,7 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -2997,7 +3022,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3019,10 +3044,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C10" t="s">
         <v>202</v>
@@ -3042,7 +3067,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -3078,16 +3103,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -3123,16 +3148,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -3140,10 +3165,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C18" t="s">
         <v>202</v>
@@ -3163,7 +3188,7 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -3194,7 +3219,7 @@
         <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -3202,10 +3227,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C22" t="s">
         <v>202</v>
@@ -3225,7 +3250,7 @@
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -3233,10 +3258,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C24" t="s">
         <v>202</v>
@@ -3247,16 +3272,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -3264,10 +3289,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C26" t="s">
         <v>60</v>
@@ -3278,10 +3303,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C27" t="s">
         <v>59</v>
@@ -3292,16 +3317,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -3309,16 +3334,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -3326,16 +3351,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -3343,10 +3368,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -3357,10 +3382,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
@@ -3385,10 +3410,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B34" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C34" t="s">
         <v>60</v>
@@ -3406,7 +3431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3458,10 +3483,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -3472,16 +3497,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -3489,10 +3514,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -3503,16 +3528,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -3520,10 +3545,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" t="s">
         <v>451</v>
-      </c>
-      <c r="B6" t="s">
-        <v>452</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -3579,10 +3604,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -3593,10 +3618,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C3" t="s">
         <v>202</v>
@@ -3607,10 +3632,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C4" t="s">
         <v>202</v>
@@ -3621,10 +3646,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C5" t="s">
         <v>202</v>
@@ -3635,10 +3660,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C6" t="s">
         <v>202</v>
@@ -3649,10 +3674,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C7" t="s">
         <v>202</v>
@@ -3663,16 +3688,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3680,16 +3705,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -3755,16 +3780,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3786,10 +3811,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -3800,10 +3825,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -3814,16 +3839,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -3831,16 +3856,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3848,16 +3873,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3865,16 +3890,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -3882,16 +3907,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -3908,7 +3933,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -3973,24 +3998,24 @@
         <v>9</v>
       </c>
       <c r="K1" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>489</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4012,10 +4037,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -4026,10 +4051,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -4040,10 +4065,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -4054,16 +4079,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4071,16 +4096,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4088,19 +4113,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -4108,16 +4133,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4125,16 +4150,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C11" t="s">
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4142,16 +4167,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4159,16 +4184,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4176,16 +4201,16 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4196,13 +4221,13 @@
         <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -4224,10 +4249,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
@@ -4238,10 +4263,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -4250,10 +4275,10 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L18" t="s">
         <v>80</v>
@@ -4268,8 +4293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="L130" sqref="L130:L143"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4321,13 +4346,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>490</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4355,7 +4380,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4462,7 +4487,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>59</v>
@@ -4471,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4485,13 +4510,13 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -4505,13 +4530,13 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -4525,7 +4550,7 @@
         <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4545,7 +4570,7 @@
         <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4579,7 +4604,7 @@
         <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -4599,7 +4624,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -4619,7 +4644,7 @@
         <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -4639,7 +4664,7 @@
         <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -4659,7 +4684,7 @@
         <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -4679,7 +4704,7 @@
         <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -4690,7 +4715,7 @@
         <v>91</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>91</v>
+        <v>552</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>61</v>
@@ -4698,11 +4723,14 @@
       <c r="D22" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="E22" s="4" t="s">
+        <v>510</v>
+      </c>
       <c r="F22" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4719,7 +4747,7 @@
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -4736,7 +4764,7 @@
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E24" t="s">
         <v>181</v>
@@ -4759,7 +4787,7 @@
         <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -4779,13 +4807,13 @@
         <v>205</v>
       </c>
       <c r="E26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -4799,13 +4827,13 @@
         <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -4819,13 +4847,13 @@
         <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -4833,19 +4861,19 @@
         <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -4853,7 +4881,7 @@
         <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
@@ -4862,7 +4890,7 @@
         <v>206</v>
       </c>
       <c r="E30" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -4896,13 +4924,13 @@
         <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4918,6 +4946,9 @@
       <c r="D33" s="4" t="s">
         <v>208</v>
       </c>
+      <c r="E33" s="4" t="s">
+        <v>510</v>
+      </c>
       <c r="F33" s="4" t="b">
         <v>0</v>
       </c>
@@ -4927,7 +4958,7 @@
         <v>103</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>103</v>
+        <v>553</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>61</v>
@@ -4944,7 +4975,7 @@
         <v>104</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>104</v>
+        <v>554</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>61</v>
@@ -4970,7 +5001,7 @@
         <v>64</v>
       </c>
       <c r="E36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -4990,7 +5021,7 @@
         <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -5001,19 +5032,19 @@
         <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -5021,22 +5052,22 @@
         <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C39" t="s">
         <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5053,7 +5084,7 @@
         <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -5073,7 +5104,7 @@
         <v>206</v>
       </c>
       <c r="E41" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -5098,22 +5129,22 @@
         <v>112</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F43" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5135,16 +5166,16 @@
         <v>114</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F45" s="6" t="b">
         <v>0</v>
@@ -5169,16 +5200,16 @@
         <v>116</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F47" s="6" t="b">
         <v>0</v>
@@ -5203,16 +5234,16 @@
         <v>118</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>518</v>
       </c>
       <c r="F49" s="6" t="b">
         <v>0</v>
@@ -5237,16 +5268,16 @@
         <v>120</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F51" s="6" t="b">
         <v>0</v>
@@ -5271,16 +5302,16 @@
         <v>122</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F53" s="6" t="b">
         <v>0</v>
@@ -5305,16 +5336,16 @@
         <v>124</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F55" s="6" t="b">
         <v>0</v>
@@ -5339,7 +5370,7 @@
         <v>126</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>61</v>
@@ -5348,7 +5379,7 @@
         <v>64</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F57" s="6" t="b">
         <v>0</v>
@@ -5382,7 +5413,7 @@
         <v>64</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F59" s="6" t="b">
         <v>0</v>
@@ -5407,7 +5438,7 @@
         <v>130</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>61</v>
@@ -5416,7 +5447,7 @@
         <v>64</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F61" s="6" t="b">
         <v>0</v>
@@ -5450,7 +5481,7 @@
         <v>64</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F63" s="6" t="b">
         <v>0</v>
@@ -5475,7 +5506,7 @@
         <v>134</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>61</v>
@@ -5498,7 +5529,7 @@
         <v>60</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F66" s="6" t="b">
         <v>0</v>
@@ -5532,7 +5563,7 @@
         <v>61</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F68" s="6" t="b">
         <v>0</v>
@@ -5566,7 +5597,7 @@
         <v>61</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F70" s="6" t="b">
         <v>0</v>
@@ -5583,7 +5614,7 @@
         <v>61</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>181</v>
@@ -5597,7 +5628,7 @@
         <v>141</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>61</v>
@@ -5614,7 +5645,7 @@
         <v>142</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>202</v>
@@ -5628,7 +5659,7 @@
         <v>143</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>143</v>
+        <v>555</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>61</v>
@@ -5651,10 +5682,10 @@
         <v>61</v>
       </c>
       <c r="D75" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E75" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -5754,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5771,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="82" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5788,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -5822,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -5968,7 +5999,7 @@
         <v>160</v>
       </c>
       <c r="B94" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C94" t="s">
         <v>202</v>
@@ -5982,19 +6013,19 @@
         <v>161</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>212</v>
+        <v>556</v>
       </c>
       <c r="F95" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="96" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6014,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -6098,7 +6129,7 @@
         <v>168</v>
       </c>
       <c r="B102" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C102" t="s">
         <v>61</v>
@@ -6118,7 +6149,7 @@
         <v>169</v>
       </c>
       <c r="B103" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C103" t="s">
         <v>60</v>
@@ -6138,7 +6169,7 @@
         <v>170</v>
       </c>
       <c r="B104" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C104" t="s">
         <v>59</v>
@@ -6150,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -6181,7 +6212,7 @@
         <v>61</v>
       </c>
       <c r="D106" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
@@ -6198,7 +6229,7 @@
         <v>61</v>
       </c>
       <c r="D107" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
@@ -6215,7 +6246,7 @@
         <v>61</v>
       </c>
       <c r="D108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -6235,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="110" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6252,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="111" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6266,13 +6297,13 @@
         <v>61</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F111" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="112" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6286,7 +6317,7 @@
         <v>61</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F112" s="6" t="b">
         <v>0</v>
@@ -6320,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="115" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6337,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6354,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6371,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="118" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6388,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="119" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6405,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6422,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6439,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="122" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6456,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="123" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6473,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="124" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6490,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="125" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6507,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="M125" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="126" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6524,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="M126" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="127" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6541,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="128" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6558,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="M128" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="129" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6575,15 +6606,15 @@
         <v>0</v>
       </c>
       <c r="M129" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C130" t="s">
         <v>62</v>
@@ -6600,10 +6631,10 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C131" t="s">
         <v>62</v>
@@ -6620,10 +6651,10 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C132" t="s">
         <v>62</v>
@@ -6640,10 +6671,10 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C133" t="s">
         <v>62</v>
@@ -6660,10 +6691,10 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C134" t="s">
         <v>62</v>
@@ -6680,10 +6711,10 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C135" t="s">
         <v>62</v>
@@ -6700,10 +6731,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C136" t="s">
         <v>62</v>
@@ -6720,10 +6751,10 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C137" t="s">
         <v>62</v>
@@ -6740,10 +6771,10 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C138" t="s">
         <v>62</v>
@@ -6760,10 +6791,10 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C139" t="s">
         <v>62</v>
@@ -6780,10 +6811,10 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C140" t="s">
         <v>62</v>
@@ -6800,10 +6831,10 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C141" t="s">
         <v>62</v>
@@ -6820,10 +6851,10 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C142" t="s">
         <v>62</v>
@@ -6840,10 +6871,10 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C143" t="s">
         <v>62</v>
@@ -6993,10 +7024,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -7007,10 +7038,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -7021,10 +7052,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
         <v>202</v>
@@ -7035,7 +7066,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -7049,10 +7080,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -7061,15 +7092,15 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
@@ -7080,10 +7111,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
@@ -7094,10 +7125,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
@@ -7108,10 +7139,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
         <v>59</v>
@@ -7122,10 +7153,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
         <v>59</v>
@@ -7136,10 +7167,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -7150,10 +7181,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -7164,10 +7195,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -7178,10 +7209,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -7192,10 +7223,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -7206,10 +7237,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -7220,10 +7251,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -7234,10 +7265,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
@@ -7248,10 +7279,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
@@ -7262,19 +7293,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -7282,22 +7313,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -7310,7 +7341,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7359,15 +7390,15 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -7378,10 +7409,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -7392,10 +7423,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -7406,10 +7437,10 @@
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>63</v>
@@ -7418,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -7481,10 +7512,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -7495,16 +7526,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7526,16 +7557,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -7543,10 +7574,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -7557,16 +7588,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -7574,10 +7605,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
@@ -7588,7 +7619,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -7608,10 +7639,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
@@ -7622,10 +7653,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -7645,7 +7676,7 @@
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E12" t="s">
         <v>181</v>
@@ -7656,7 +7687,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -7670,7 +7701,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -7693,7 +7724,7 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -7701,7 +7732,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B16" t="s">
         <v>181</v>
@@ -7718,10 +7749,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
@@ -7732,10 +7763,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -7746,10 +7777,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
         <v>202</v>
@@ -7760,10 +7791,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C20" t="s">
         <v>202</v>
@@ -7774,16 +7805,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C21" t="s">
         <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -7798,7 +7829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -7849,18 +7880,18 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -7868,16 +7899,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7904,24 +7935,24 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
@@ -7929,24 +7960,24 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
+        <v>501</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
         <v>502</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
@@ -7954,10 +7985,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
@@ -7965,10 +7996,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
@@ -7976,24 +8007,24 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -8001,24 +8032,24 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -8026,52 +8057,52 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
@@ -8079,24 +8110,24 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -8104,24 +8135,24 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C22" t="s">
         <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
@@ -8129,24 +8160,24 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C24" t="s">
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -8154,7 +8185,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B26" t="s">
         <v>184</v>
@@ -8163,15 +8194,15 @@
         <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C27" t="s">
         <v>60</v>
@@ -8179,24 +8210,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
@@ -8204,24 +8235,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -8229,24 +8260,24 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C32" t="s">
         <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C33" t="s">
         <v>59</v>
@@ -8254,10 +8285,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C34" t="s">
         <v>59</v>
@@ -8265,24 +8296,24 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C36" t="s">
         <v>202</v>
@@ -8299,26 +8330,26 @@
         <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C38" t="s">
         <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s">
         <v>181</v>
@@ -8329,10 +8360,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -8343,18 +8374,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -8365,18 +8396,18 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -8387,18 +8418,18 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -8409,18 +8440,18 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -8431,18 +8462,18 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -8453,18 +8484,18 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -8475,18 +8506,18 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -8497,18 +8528,18 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -8519,18 +8550,18 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -8541,18 +8572,18 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -8563,18 +8594,18 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -8585,24 +8616,24 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -8614,8 +8645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8666,10 +8697,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -8680,16 +8711,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -8725,7 +8756,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -8751,7 +8782,7 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -8771,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -8788,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -8816,7 +8847,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -8847,7 +8878,7 @@
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -8864,7 +8895,7 @@
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -8872,16 +8903,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -8889,7 +8920,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -8903,7 +8934,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B17" t="s">
         <v>89</v>
@@ -8912,7 +8943,7 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -8920,7 +8951,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B18" t="s">
         <v>188</v>
@@ -8929,7 +8960,7 @@
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -8937,7 +8968,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B19" t="s">
         <v>187</v>
@@ -8946,7 +8977,7 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -8954,7 +8985,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B20" t="s">
         <v>88</v>
@@ -8963,7 +8994,7 @@
         <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -8971,10 +9002,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -9055,7 +9086,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B27" t="s">
         <v>195</v>
@@ -9092,7 +9123,7 @@
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -9109,7 +9140,7 @@
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -9117,16 +9148,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -9143,7 +9174,7 @@
         <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -9160,7 +9191,7 @@
         <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -9171,7 +9202,7 @@
         <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
@@ -9180,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -9188,13 +9219,13 @@
         <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -9211,7 +9242,7 @@
         <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -9228,7 +9259,7 @@
         <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -9281,15 +9312,15 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -9323,7 +9354,7 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -9331,10 +9362,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -9345,7 +9376,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -9359,7 +9390,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -9373,7 +9404,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -9382,13 +9413,13 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -9402,7 +9433,7 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -9410,10 +9441,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
@@ -9424,10 +9455,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -9438,16 +9469,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -9455,16 +9486,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -9472,16 +9503,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -9489,16 +9520,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -9506,16 +9537,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -9523,16 +9554,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -9540,16 +9571,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -9557,16 +9588,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C19" t="s">
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -9633,10 +9664,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -9647,16 +9678,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -9678,7 +9709,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -9692,10 +9723,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -9706,10 +9737,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
@@ -9720,7 +9751,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -9734,7 +9765,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -9748,16 +9779,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -9765,16 +9796,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C11" t="s">
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -9782,16 +9813,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -9799,16 +9830,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -9816,16 +9847,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -9833,7 +9864,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B15" t="s">
         <v>175</v>
@@ -9842,7 +9873,7 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -9850,10 +9881,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -9864,10 +9895,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -9878,16 +9909,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>

--- a/examples/oucru/oucru-md/resources/outputs/templates/ccfgs_md_data_fixed.xlsx
+++ b/examples/oucru/oucru-md/resources/outputs/templates/ccfgs_md_data_fixed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Desktop\repositories\datablend\examples\oucru\oucru-md\resources\outputs\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-md\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DCDF19-6F06-40C7-8F3D-3DB2AFA59A79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EE827C-F1BF-4B9C-8C22-ACE2A3D527D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MD_lab" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,23 @@
     <sheet name="MD_Elisa_sum" sheetId="13" r:id="rId13"/>
     <sheet name="MD_Elisa_all" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="577">
   <si>
     <t>from_name</t>
   </si>
@@ -647,9 +658,6 @@
     <t>{'(6,16]': 'V_0', '(2,6]': 'V_1', '(0,2]': 'V_3'}</t>
   </si>
   <si>
-    <t>{'Rural': 'V_0', 'Urban': 'V_1'}</t>
-  </si>
-  <si>
     <t>{999: None}</t>
   </si>
   <si>
@@ -659,12 +667,6 @@
     <t>{'√Çm th·ªïi t√¢m thu d·∫°ng phut 2/6 ·ªü li√™n s∆∞·ªùn II b·ªù tr√°i x∆∞∆°ng ·ª©c': 'V_1'}</t>
   </si>
   <si>
-    <t>{'No': 'V_0', 'Yes': 'V_2'}</t>
-  </si>
-  <si>
-    <t>{'No': 'V_0'}</t>
-  </si>
-  <si>
     <t>{'Recovery': 'Full recovery', 'Unknown': 'Unknown'}</t>
   </si>
   <si>
@@ -677,15 +679,6 @@
     <t>{'dengue': 'V_0', 'unknown': 'V_1', 'not dengue': 'V_2'}</t>
   </si>
   <si>
-    <t>{'dengue': 'V_0', 'not dengue': 'V_2'}</t>
-  </si>
-  <si>
-    <t>{'check (possible primary)': 'V_1', 'primary': 'V_2', 'unknown': 'V_3', 'secondary': 'V_4'}</t>
-  </si>
-  <si>
-    <t>{'check (possible primary)': 'V_1', 'primary': 'V_2', 'secondary': 'V_3'}</t>
-  </si>
-  <si>
     <t>event_shock</t>
   </si>
   <si>
@@ -1559,9 +1552,6 @@
     <t>ignore</t>
   </si>
   <si>
-    <t>hemoglobin</t>
-  </si>
-  <si>
     <t>is it the right date?</t>
   </si>
   <si>
@@ -1601,9 +1591,6 @@
     <t>muscle_pain</t>
   </si>
   <si>
-    <t>breath_short</t>
-  </si>
-  <si>
     <t>restlessness</t>
   </si>
   <si>
@@ -1704,6 +1691,90 @@
   </si>
   <si>
     <t>{'No': False, 'Mucose': True, 'Skin': True, 'Other': True}</t>
+  </si>
+  <si>
+    <t>date_onset</t>
+  </si>
+  <si>
+    <t>-doi_adm</t>
+  </si>
+  <si>
+    <t>date_discharge</t>
+  </si>
+  <si>
+    <t>date_followup</t>
+  </si>
+  <si>
+    <t>{'Rural': 'Rural', 'Urban': 'Urban'}</t>
+  </si>
+  <si>
+    <t>{'No': False}</t>
+  </si>
+  <si>
+    <t>-his_hdached</t>
+  </si>
+  <si>
+    <t>-his_muspd</t>
+  </si>
+  <si>
+    <t>-his_sobd</t>
+  </si>
+  <si>
+    <t>-his_tiredd</t>
+  </si>
+  <si>
+    <t>-his_diarrd</t>
+  </si>
+  <si>
+    <t>-his_chillsd</t>
+  </si>
+  <si>
+    <t>-his_vomitd</t>
+  </si>
+  <si>
+    <t>-his_abpaind</t>
+  </si>
+  <si>
+    <t>-his_coughd</t>
+  </si>
+  <si>
+    <t>-his_rashd</t>
+  </si>
+  <si>
+    <t>-his_skinbledd</t>
+  </si>
+  <si>
+    <t>-his_petechd</t>
+  </si>
+  <si>
+    <t>-his_mmbledd</t>
+  </si>
+  <si>
+    <t>{'check (possible primary)': 'Primary', 'primary': 'Primary', 'unknown': 'Inconclusive', 'secondary': 'Secondary'}</t>
+  </si>
+  <si>
+    <t>{'check (possible primary)': 'Primary', 'primary': 'Primary', 'secondary': 'Secondary'}</t>
+  </si>
+  <si>
+    <t>contained in previous</t>
+  </si>
+  <si>
+    <t>denge_interpretation</t>
+  </si>
+  <si>
+    <t>{'dengue': True, 'not dengue': False}</t>
+  </si>
+  <si>
+    <t>-his_feverd</t>
+  </si>
+  <si>
+    <t>shortness_of_breath</t>
+  </si>
+  <si>
+    <t>haemoglobin</t>
+  </si>
+  <si>
+    <t>megacount/L</t>
   </si>
 </sst>
 </file>
@@ -1804,7 +1875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1822,6 +1893,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2160,10 +2232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,16 +2244,18 @@
     <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2213,10 +2287,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2230,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2250,7 +2330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2270,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
@@ -2284,15 +2364,15 @@
         <v>0</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>62</v>
@@ -2304,15 +2384,15 @@
         <v>67</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>551</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>62</v>
@@ -2324,7 +2404,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2338,12 +2418,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>552</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
@@ -2355,7 +2435,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2369,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2383,7 +2463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2397,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2411,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2422,13 +2502,13 @@
         <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2448,7 +2528,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -2462,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2496,7 +2576,7 @@
         <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -2516,7 +2596,7 @@
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>552</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2579,7 +2659,7 @@
         <v>72</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2599,7 +2679,7 @@
         <v>72</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2619,7 +2699,7 @@
         <v>72</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2639,7 +2719,7 @@
         <v>72</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2659,7 +2739,7 @@
         <v>72</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2667,7 +2747,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>508</v>
+        <v>575</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>63</v>
@@ -2679,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2699,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>73</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2713,13 +2793,13 @@
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>552</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>73</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2739,7 +2819,7 @@
         <v>73</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2759,7 +2839,7 @@
         <v>73</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2779,10 +2859,10 @@
         <v>73</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>41</v>
       </c>
@@ -2799,10 +2879,10 @@
         <v>73</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>42</v>
       </c>
@@ -2819,10 +2899,10 @@
         <v>73</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>43</v>
       </c>
@@ -2839,10 +2919,10 @@
         <v>73</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2859,8 +2939,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2920,10 +3021,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -2934,16 +3035,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -2965,16 +3066,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -2982,10 +3083,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C6" t="s">
         <v>59</v>
@@ -3005,7 +3106,7 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3022,7 +3123,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3044,10 +3145,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C10" t="s">
         <v>202</v>
@@ -3067,7 +3168,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -3103,16 +3204,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B14" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -3148,16 +3249,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B17" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -3165,10 +3266,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B18" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C18" t="s">
         <v>202</v>
@@ -3188,7 +3289,7 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -3219,7 +3320,7 @@
         <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -3227,10 +3328,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B22" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C22" t="s">
         <v>202</v>
@@ -3250,7 +3351,7 @@
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -3258,10 +3359,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B24" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C24" t="s">
         <v>202</v>
@@ -3272,16 +3373,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B25" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -3289,10 +3390,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B26" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C26" t="s">
         <v>60</v>
@@ -3303,10 +3404,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B27" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C27" t="s">
         <v>59</v>
@@ -3317,16 +3418,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B28" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -3334,16 +3435,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B29" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -3351,16 +3452,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B30" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -3368,10 +3469,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B31" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -3382,10 +3483,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
@@ -3410,10 +3511,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B34" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C34" t="s">
         <v>60</v>
@@ -3431,7 +3532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3483,10 +3584,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -3497,16 +3598,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -3514,10 +3615,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -3528,16 +3629,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -3545,10 +3646,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -3604,10 +3705,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -3618,10 +3719,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C3" t="s">
         <v>202</v>
@@ -3632,10 +3733,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B4" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C4" t="s">
         <v>202</v>
@@ -3646,10 +3747,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C5" t="s">
         <v>202</v>
@@ -3660,10 +3761,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C6" t="s">
         <v>202</v>
@@ -3674,10 +3775,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C7" t="s">
         <v>202</v>
@@ -3688,16 +3789,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B8" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3705,16 +3806,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -3780,16 +3881,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3811,10 +3912,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -3825,10 +3926,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -3839,16 +3940,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
         <v>470</v>
-      </c>
-      <c r="B6" t="s">
-        <v>470</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>476</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -3856,16 +3957,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3873,16 +3974,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B8" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3890,16 +3991,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B9" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -3907,16 +4008,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -3933,7 +4034,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -3998,24 +4099,24 @@
         <v>9</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4037,10 +4138,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -4051,10 +4152,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -4065,10 +4166,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B6" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -4079,16 +4180,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4096,16 +4197,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B8" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4113,19 +4214,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B9" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -4133,16 +4234,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
         <v>470</v>
-      </c>
-      <c r="B10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>476</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4150,16 +4251,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B11" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C11" t="s">
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4167,16 +4268,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4184,16 +4285,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B13" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4201,16 +4302,16 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B14" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4221,13 +4322,13 @@
         <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -4249,10 +4350,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B17" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
@@ -4263,10 +4364,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B18" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -4275,10 +4376,10 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="K18" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="L18" t="s">
         <v>80</v>
@@ -4293,8 +4394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4303,13 +4404,13 @@
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="69.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
   </cols>
@@ -4346,13 +4447,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4380,7 +4481,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -4416,6 +4517,9 @@
       <c r="C5" t="s">
         <v>61</v>
       </c>
+      <c r="E5" t="s">
+        <v>181</v>
+      </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
@@ -4459,7 +4563,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>553</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4487,7 +4591,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>59</v>
@@ -4496,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4510,13 +4614,13 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -4530,13 +4634,13 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -4550,7 +4654,7 @@
         <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4570,7 +4674,7 @@
         <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4604,7 +4708,7 @@
         <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -4624,7 +4728,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -4644,7 +4748,7 @@
         <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -4664,7 +4768,7 @@
         <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -4684,7 +4788,7 @@
         <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -4704,7 +4808,7 @@
         <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -4715,7 +4819,7 @@
         <v>91</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>61</v>
@@ -4723,14 +4827,14 @@
       <c r="D22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>510</v>
+      <c r="E22" t="s">
+        <v>181</v>
       </c>
       <c r="F22" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4747,7 +4851,7 @@
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -4764,7 +4868,7 @@
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E24" t="s">
         <v>181</v>
@@ -4787,7 +4891,7 @@
         <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -4804,16 +4908,16 @@
         <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E26" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -4827,13 +4931,13 @@
         <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -4847,13 +4951,13 @@
         <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -4861,19 +4965,19 @@
         <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -4881,16 +4985,16 @@
         <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E30" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -4907,7 +5011,7 @@
         <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -4924,13 +5028,13 @@
         <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4944,10 +5048,10 @@
         <v>61</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>510</v>
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>181</v>
       </c>
       <c r="F33" s="4" t="b">
         <v>0</v>
@@ -4958,13 +5062,16 @@
         <v>103</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>209</v>
+        <v>554</v>
+      </c>
+      <c r="E34" t="s">
+        <v>181</v>
       </c>
       <c r="F34" s="4" t="b">
         <v>0</v>
@@ -4975,13 +5082,16 @@
         <v>104</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>208</v>
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
+        <v>181</v>
       </c>
       <c r="F35" s="4" t="b">
         <v>0</v>
@@ -5001,7 +5111,7 @@
         <v>64</v>
       </c>
       <c r="E36" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -5021,7 +5131,7 @@
         <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -5032,19 +5142,19 @@
         <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -5052,22 +5162,22 @@
         <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C39" t="s">
         <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E39" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5084,7 +5194,7 @@
         <v>64</v>
       </c>
       <c r="E40" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -5101,10 +5211,10 @@
         <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E41" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -5129,22 +5239,22 @@
         <v>112</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F43" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5166,16 +5276,16 @@
         <v>114</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F45" s="6" t="b">
         <v>0</v>
@@ -5200,16 +5310,16 @@
         <v>116</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F47" s="6" t="b">
         <v>0</v>
@@ -5234,16 +5344,16 @@
         <v>118</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>522</v>
+        <v>574</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F49" s="6" t="b">
         <v>0</v>
@@ -5268,16 +5378,16 @@
         <v>120</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F51" s="6" t="b">
         <v>0</v>
@@ -5302,16 +5412,16 @@
         <v>122</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F53" s="6" t="b">
         <v>0</v>
@@ -5336,16 +5446,16 @@
         <v>124</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F55" s="6" t="b">
         <v>0</v>
@@ -5370,7 +5480,7 @@
         <v>126</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>61</v>
@@ -5379,7 +5489,7 @@
         <v>64</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F57" s="6" t="b">
         <v>0</v>
@@ -5413,7 +5523,7 @@
         <v>64</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F59" s="6" t="b">
         <v>0</v>
@@ -5438,7 +5548,7 @@
         <v>130</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>61</v>
@@ -5447,7 +5557,7 @@
         <v>64</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F61" s="6" t="b">
         <v>0</v>
@@ -5481,7 +5591,7 @@
         <v>64</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F63" s="6" t="b">
         <v>0</v>
@@ -5501,12 +5611,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>61</v>
@@ -5514,11 +5624,14 @@
       <c r="D65" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="E65" s="6" t="s">
+        <v>512</v>
+      </c>
       <c r="F65" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>135</v>
       </c>
@@ -5528,14 +5641,11 @@
       <c r="C66" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>519</v>
-      </c>
       <c r="F66" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>136</v>
       </c>
@@ -5548,11 +5658,14 @@
       <c r="D67" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="E67" s="6" t="s">
+        <v>492</v>
+      </c>
       <c r="F67" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>137</v>
       </c>
@@ -5562,14 +5675,11 @@
       <c r="C68" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>498</v>
-      </c>
       <c r="F68" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>138</v>
       </c>
@@ -5582,11 +5692,14 @@
       <c r="D69" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="E69" s="6" t="s">
+        <v>493</v>
+      </c>
       <c r="F69" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>139</v>
       </c>
@@ -5596,39 +5709,36 @@
       <c r="C70" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>499</v>
-      </c>
       <c r="F70" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+    <row r="71" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F71" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F71" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>61</v>
@@ -5640,12 +5750,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>202</v>
@@ -5654,12 +5764,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>143</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>61</v>
@@ -5671,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>144</v>
       </c>
@@ -5682,16 +5792,16 @@
         <v>61</v>
       </c>
       <c r="D75" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E75" t="s">
-        <v>510</v>
+        <v>181</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -5711,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>146</v>
       </c>
@@ -5731,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -5742,7 +5852,7 @@
         <v>61</v>
       </c>
       <c r="D78" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E78" t="s">
         <v>181</v>
@@ -5751,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -5771,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>148</v>
       </c>
@@ -5785,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5802,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="82" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5819,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -5853,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -5926,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="D89" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -5999,7 +6109,7 @@
         <v>160</v>
       </c>
       <c r="B94" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C94" t="s">
         <v>202</v>
@@ -6019,13 +6129,13 @@
         <v>61</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F95" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="96" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6039,13 +6149,13 @@
         <v>61</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="F96" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -6073,7 +6183,7 @@
         <v>61</v>
       </c>
       <c r="D98" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -6104,7 +6214,7 @@
         <v>61</v>
       </c>
       <c r="D100" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
@@ -6129,7 +6239,7 @@
         <v>168</v>
       </c>
       <c r="B102" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C102" t="s">
         <v>61</v>
@@ -6149,7 +6259,7 @@
         <v>169</v>
       </c>
       <c r="B103" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C103" t="s">
         <v>60</v>
@@ -6169,7 +6279,7 @@
         <v>170</v>
       </c>
       <c r="B104" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C104" t="s">
         <v>59</v>
@@ -6181,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -6195,7 +6305,7 @@
         <v>61</v>
       </c>
       <c r="D105" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
@@ -6212,7 +6322,7 @@
         <v>61</v>
       </c>
       <c r="D106" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
@@ -6229,7 +6339,7 @@
         <v>61</v>
       </c>
       <c r="D107" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
@@ -6240,13 +6350,13 @@
         <v>174</v>
       </c>
       <c r="B108" t="s">
-        <v>174</v>
+        <v>571</v>
       </c>
       <c r="C108" t="s">
         <v>61</v>
       </c>
       <c r="D108" t="s">
-        <v>214</v>
+        <v>572</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -6266,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="110" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6283,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="111" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6297,13 +6407,13 @@
         <v>61</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>215</v>
+        <v>568</v>
       </c>
       <c r="F111" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="112" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6317,7 +6427,7 @@
         <v>61</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>216</v>
+        <v>569</v>
       </c>
       <c r="F112" s="6" t="b">
         <v>0</v>
@@ -6351,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="115" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6368,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6385,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6402,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="118" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6419,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="119" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6436,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6453,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6470,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="122" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6487,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="123" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6504,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="124" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6521,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="125" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6538,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="M125" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="126" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6555,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="M126" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="127" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6572,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="128" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6589,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="M128" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="129" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6606,15 +6716,15 @@
         <v>0</v>
       </c>
       <c r="M129" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C130" t="s">
         <v>62</v>
@@ -6622,8 +6732,8 @@
       <c r="F130" t="b">
         <v>1</v>
       </c>
-      <c r="K130" s="8" t="s">
-        <v>113</v>
+      <c r="K130" s="11" t="s">
+        <v>573</v>
       </c>
       <c r="L130" s="8" t="s">
         <v>79</v>
@@ -6631,10 +6741,10 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C131" t="s">
         <v>62</v>
@@ -6642,8 +6752,8 @@
       <c r="F131" t="b">
         <v>1</v>
       </c>
-      <c r="K131" s="8" t="s">
-        <v>115</v>
+      <c r="K131" s="11" t="s">
+        <v>555</v>
       </c>
       <c r="L131" s="8" t="s">
         <v>79</v>
@@ -6651,10 +6761,10 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C132" t="s">
         <v>62</v>
@@ -6662,8 +6772,8 @@
       <c r="F132" t="b">
         <v>1</v>
       </c>
-      <c r="K132" s="8" t="s">
-        <v>117</v>
+      <c r="K132" s="11" t="s">
+        <v>556</v>
       </c>
       <c r="L132" s="8" t="s">
         <v>79</v>
@@ -6671,10 +6781,10 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C133" t="s">
         <v>62</v>
@@ -6682,8 +6792,8 @@
       <c r="F133" t="b">
         <v>1</v>
       </c>
-      <c r="K133" s="8" t="s">
-        <v>119</v>
+      <c r="K133" s="11" t="s">
+        <v>557</v>
       </c>
       <c r="L133" s="8" t="s">
         <v>79</v>
@@ -6691,10 +6801,10 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C134" t="s">
         <v>62</v>
@@ -6702,8 +6812,8 @@
       <c r="F134" t="b">
         <v>1</v>
       </c>
-      <c r="K134" s="8" t="s">
-        <v>121</v>
+      <c r="K134" s="11" t="s">
+        <v>558</v>
       </c>
       <c r="L134" s="8" t="s">
         <v>79</v>
@@ -6711,10 +6821,10 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C135" t="s">
         <v>62</v>
@@ -6722,8 +6832,8 @@
       <c r="F135" t="b">
         <v>1</v>
       </c>
-      <c r="K135" s="8" t="s">
-        <v>123</v>
+      <c r="K135" s="11" t="s">
+        <v>559</v>
       </c>
       <c r="L135" s="8" t="s">
         <v>79</v>
@@ -6731,10 +6841,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C136" t="s">
         <v>62</v>
@@ -6742,8 +6852,8 @@
       <c r="F136" t="b">
         <v>1</v>
       </c>
-      <c r="K136" s="8" t="s">
-        <v>125</v>
+      <c r="K136" s="11" t="s">
+        <v>560</v>
       </c>
       <c r="L136" s="8" t="s">
         <v>79</v>
@@ -6751,10 +6861,10 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C137" t="s">
         <v>62</v>
@@ -6762,8 +6872,8 @@
       <c r="F137" t="b">
         <v>1</v>
       </c>
-      <c r="K137" s="8" t="s">
-        <v>127</v>
+      <c r="K137" s="11" t="s">
+        <v>561</v>
       </c>
       <c r="L137" s="8" t="s">
         <v>79</v>
@@ -6771,10 +6881,10 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C138" t="s">
         <v>62</v>
@@ -6782,8 +6892,8 @@
       <c r="F138" t="b">
         <v>1</v>
       </c>
-      <c r="K138" s="8" t="s">
-        <v>129</v>
+      <c r="K138" s="11" t="s">
+        <v>562</v>
       </c>
       <c r="L138" s="8" t="s">
         <v>79</v>
@@ -6791,10 +6901,10 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C139" t="s">
         <v>62</v>
@@ -6802,8 +6912,8 @@
       <c r="F139" t="b">
         <v>1</v>
       </c>
-      <c r="K139" s="8" t="s">
-        <v>131</v>
+      <c r="K139" s="11" t="s">
+        <v>563</v>
       </c>
       <c r="L139" s="8" t="s">
         <v>79</v>
@@ -6811,10 +6921,10 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C140" t="s">
         <v>62</v>
@@ -6822,8 +6932,8 @@
       <c r="F140" t="b">
         <v>1</v>
       </c>
-      <c r="K140" s="8" t="s">
-        <v>133</v>
+      <c r="K140" s="11" t="s">
+        <v>564</v>
       </c>
       <c r="L140" s="8" t="s">
         <v>79</v>
@@ -6831,10 +6941,10 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C141" t="s">
         <v>62</v>
@@ -6842,8 +6952,8 @@
       <c r="F141" t="b">
         <v>1</v>
       </c>
-      <c r="K141" s="8" t="s">
-        <v>135</v>
+      <c r="K141" s="11" t="s">
+        <v>565</v>
       </c>
       <c r="L141" s="8" t="s">
         <v>79</v>
@@ -6851,10 +6961,10 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C142" t="s">
         <v>62</v>
@@ -6862,8 +6972,8 @@
       <c r="F142" t="b">
         <v>1</v>
       </c>
-      <c r="K142" s="8" t="s">
-        <v>137</v>
+      <c r="K142" s="11" t="s">
+        <v>566</v>
       </c>
       <c r="L142" s="8" t="s">
         <v>79</v>
@@ -6871,10 +6981,10 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C143" t="s">
         <v>62</v>
@@ -6882,8 +6992,8 @@
       <c r="F143" t="b">
         <v>1</v>
       </c>
-      <c r="K143" s="8" t="s">
-        <v>139</v>
+      <c r="K143" s="11" t="s">
+        <v>567</v>
       </c>
       <c r="L143" s="8" t="s">
         <v>79</v>
@@ -7024,10 +7134,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -7038,10 +7148,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -7052,10 +7162,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
         <v>202</v>
@@ -7066,7 +7176,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -7080,10 +7190,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -7092,15 +7202,15 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
@@ -7111,10 +7221,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
@@ -7125,10 +7235,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
@@ -7139,10 +7249,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
         <v>59</v>
@@ -7153,10 +7263,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
         <v>59</v>
@@ -7167,10 +7277,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -7181,10 +7291,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -7195,10 +7305,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -7209,10 +7319,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -7223,10 +7333,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -7237,10 +7347,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -7251,10 +7361,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -7265,10 +7375,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
@@ -7279,10 +7389,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
@@ -7293,19 +7403,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E21" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -7313,22 +7423,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -7390,15 +7500,15 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -7409,10 +7519,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -7423,10 +7533,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -7437,10 +7547,10 @@
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>63</v>
@@ -7449,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -7512,10 +7622,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -7526,16 +7636,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7557,16 +7667,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -7574,10 +7684,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -7588,16 +7698,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
         <v>288</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>294</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -7605,10 +7715,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
@@ -7619,7 +7729,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -7639,10 +7749,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
@@ -7653,10 +7763,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -7676,7 +7786,7 @@
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E12" t="s">
         <v>181</v>
@@ -7687,7 +7797,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -7701,7 +7811,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -7724,7 +7834,7 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -7732,7 +7842,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B16" t="s">
         <v>181</v>
@@ -7749,10 +7859,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B17" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
@@ -7763,10 +7873,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B18" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -7777,10 +7887,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" t="s">
         <v>283</v>
-      </c>
-      <c r="B19" t="s">
-        <v>289</v>
       </c>
       <c r="C19" t="s">
         <v>202</v>
@@ -7791,10 +7901,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" t="s">
         <v>284</v>
-      </c>
-      <c r="B20" t="s">
-        <v>290</v>
       </c>
       <c r="C20" t="s">
         <v>202</v>
@@ -7805,16 +7915,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" t="s">
         <v>285</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
         <v>291</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>297</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -7829,7 +7939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -7880,18 +7990,18 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -7899,16 +8009,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7935,24 +8045,24 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
@@ -7960,24 +8070,24 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
@@ -7985,10 +8095,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
@@ -7996,10 +8106,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B11" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
@@ -8007,24 +8117,24 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -8032,24 +8142,24 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -8057,52 +8167,52 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B16" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B17" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B18" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B19" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
@@ -8110,24 +8220,24 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B20" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B21" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -8135,24 +8245,24 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B22" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C22" t="s">
         <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B23" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
@@ -8160,24 +8270,24 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B24" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C24" t="s">
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B25" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -8185,7 +8295,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B26" t="s">
         <v>184</v>
@@ -8194,15 +8304,15 @@
         <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B27" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C27" t="s">
         <v>60</v>
@@ -8210,24 +8320,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B28" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B29" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
@@ -8235,24 +8345,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B30" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B31" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -8260,24 +8370,24 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B32" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C32" t="s">
         <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C33" t="s">
         <v>59</v>
@@ -8285,10 +8395,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C34" t="s">
         <v>59</v>
@@ -8296,24 +8406,24 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B35" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C36" t="s">
         <v>202</v>
@@ -8330,26 +8440,26 @@
         <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C38" t="s">
         <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B39" t="s">
         <v>181</v>
@@ -8360,10 +8470,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -8374,18 +8484,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -8396,18 +8506,18 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -8418,18 +8528,18 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -8440,18 +8550,18 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -8462,18 +8572,18 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -8484,18 +8594,18 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -8506,18 +8616,18 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -8528,18 +8638,18 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -8550,18 +8660,18 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -8572,18 +8682,18 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -8594,18 +8704,18 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -8616,24 +8726,24 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -8645,7 +8755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -8697,10 +8807,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -8711,16 +8821,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -8756,7 +8866,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -8782,7 +8892,7 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -8802,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -8819,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -8847,7 +8957,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -8878,7 +8988,7 @@
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -8895,7 +9005,7 @@
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -8903,16 +9013,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -8920,7 +9030,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -8934,7 +9044,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B17" t="s">
         <v>89</v>
@@ -8943,7 +9053,7 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -8951,7 +9061,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
         <v>188</v>
@@ -8960,7 +9070,7 @@
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -8968,7 +9078,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B19" t="s">
         <v>187</v>
@@ -8977,7 +9087,7 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -8985,7 +9095,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B20" t="s">
         <v>88</v>
@@ -8994,7 +9104,7 @@
         <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -9002,10 +9112,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B21" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -9086,7 +9196,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B27" t="s">
         <v>195</v>
@@ -9123,7 +9233,7 @@
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -9140,7 +9250,7 @@
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -9148,16 +9258,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B31" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -9174,7 +9284,7 @@
         <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -9191,7 +9301,7 @@
         <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -9202,7 +9312,7 @@
         <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
@@ -9211,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -9219,13 +9329,13 @@
         <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -9242,7 +9352,7 @@
         <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -9259,7 +9369,7 @@
         <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -9312,15 +9422,15 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -9354,7 +9464,7 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -9362,10 +9472,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -9376,7 +9486,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -9390,7 +9500,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -9404,7 +9514,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -9413,13 +9523,13 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -9433,7 +9543,7 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -9441,10 +9551,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
@@ -9455,10 +9565,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -9469,16 +9579,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -9486,16 +9596,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
         <v>381</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>387</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -9503,16 +9613,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
         <v>382</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>388</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -9520,16 +9630,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B15" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -9537,16 +9647,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -9554,16 +9664,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B17" t="s">
+        <v>372</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
         <v>378</v>
-      </c>
-      <c r="B17" t="s">
-        <v>378</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>384</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -9571,16 +9681,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B18" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -9588,16 +9698,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B19" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C19" t="s">
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -9664,10 +9774,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -9678,16 +9788,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -9709,7 +9819,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -9723,10 +9833,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -9737,10 +9847,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
@@ -9751,7 +9861,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -9765,7 +9875,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -9779,16 +9889,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
         <v>404</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>410</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -9796,16 +9906,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
         <v>405</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>411</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -9813,16 +9923,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -9830,16 +9940,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -9847,16 +9957,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B14" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -9864,7 +9974,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B15" t="s">
         <v>175</v>
@@ -9873,7 +9983,7 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -9881,10 +9991,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B16" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -9895,10 +10005,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B17" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -9909,16 +10019,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B18" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>

--- a/examples/oucru/oucru-md/resources/outputs/templates/ccfgs_md_data_fixed.xlsx
+++ b/examples/oucru/oucru-md/resources/outputs/templates/ccfgs_md_data_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-md\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EE827C-F1BF-4B9C-8C22-ACE2A3D527D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD612F5B-1029-45CD-9FDF-F2B6CF49244E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25425" yWindow="480" windowWidth="23430" windowHeight="16470" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MD_lab" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="579">
   <si>
     <t>from_name</t>
   </si>
@@ -1775,6 +1775,12 @@
   </si>
   <si>
     <t>megacount/L</t>
+  </si>
+  <si>
+    <t>event_onset</t>
+  </si>
+  <si>
+    <t>{'secondary': 'Secondary', 'unknown': 'Inconclusive', 'check (possible primary)': 'Primary', 'primary': 'Primary'}</t>
   </si>
 </sst>
 </file>
@@ -2234,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2951,6 +2957,9 @@
       </c>
       <c r="F37" s="8" t="b">
         <v>1</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>577</v>
       </c>
       <c r="L37" s="11" t="s">
         <v>550</v>
@@ -4049,15 +4058,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.42578125" customWidth="1"/>
+    <col min="4" max="4" width="97.140625" customWidth="1"/>
     <col min="5" max="5" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -4328,7 +4337,10 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>474</v>
+        <v>578</v>
+      </c>
+      <c r="E15" t="s">
+        <v>241</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>

--- a/examples/oucru/oucru-md/resources/outputs/templates/ccfgs_md_data_fixed.xlsx
+++ b/examples/oucru/oucru-md/resources/outputs/templates/ccfgs_md_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-md\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD612F5B-1029-45CD-9FDF-F2B6CF49244E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDDC78F-9680-49A1-9A11-455BD0915FC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25425" yWindow="480" windowWidth="23430" windowHeight="16470" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="600" windowWidth="23730" windowHeight="16470" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MD_lab" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="570">
   <si>
     <t>from_name</t>
   </si>
@@ -778,42 +778,6 @@
     <t>tm_group</t>
   </si>
   <si>
-    <t>ct_denv1</t>
-  </si>
-  <si>
-    <t>copies_denv1</t>
-  </si>
-  <si>
-    <t>copiesml_denv1</t>
-  </si>
-  <si>
-    <t>ct_denv2</t>
-  </si>
-  <si>
-    <t>copies_denv2</t>
-  </si>
-  <si>
-    <t>copiesml_denv2</t>
-  </si>
-  <si>
-    <t>ct_denv3</t>
-  </si>
-  <si>
-    <t>copies_denv3</t>
-  </si>
-  <si>
-    <t>copiesml_denv3</t>
-  </si>
-  <si>
-    <t>ct_denv4</t>
-  </si>
-  <si>
-    <t>copies_denv4</t>
-  </si>
-  <si>
-    <t>copiesml_denv4</t>
-  </si>
-  <si>
     <t>pcr_dengue_serotype</t>
   </si>
   <si>
@@ -916,9 +880,6 @@
     <t>{1: 'Male', 2: 'Female', 8: None}</t>
   </si>
   <si>
-    <t>{2: 'V_0', 1: 'V_1', 8: 'V_3', 3: 'V_4', 9: 'V_5'}</t>
-  </si>
-  <si>
     <t>{'Lost CRF': 'V_1'}</t>
   </si>
   <si>
@@ -1237,9 +1198,6 @@
     <t>unnamed: 0</t>
   </si>
   <si>
-    <t>day of illness</t>
-  </si>
-  <si>
     <t>pltnadir</t>
   </si>
   <si>
@@ -1759,9 +1717,6 @@
     <t>contained in previous</t>
   </si>
   <si>
-    <t>denge_interpretation</t>
-  </si>
-  <si>
     <t>{'dengue': True, 'not dengue': False}</t>
   </si>
   <si>
@@ -1781,6 +1736,24 @@
   </si>
   <si>
     <t>{'secondary': 'Secondary', 'unknown': 'Inconclusive', 'check (possible primary)': 'Primary', 'primary': 'Primary'}</t>
+  </si>
+  <si>
+    <t>day_from_illness</t>
+  </si>
+  <si>
+    <t>dengue_interpretation</t>
+  </si>
+  <si>
+    <t>pcr_dengue_reaction</t>
+  </si>
+  <si>
+    <t>pcr_dengue_ct</t>
+  </si>
+  <si>
+    <t>pcr_dengue_count</t>
+  </si>
+  <si>
+    <t>{2: 2, 1: 1, 8: 8, 3: 3, 9: 9}</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1784,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1839,6 +1812,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1881,7 +1860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1900,6 +1879,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2241,7 +2221,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2293,13 +2273,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2361,16 +2341,19 @@
         <v>13</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>13</v>
+        <v>564</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>60</v>
       </c>
+      <c r="E5" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="F5" s="10" t="b">
         <v>0</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2390,7 +2373,7 @@
         <v>67</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2398,7 +2381,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>62</v>
@@ -2415,10 +2398,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>564</v>
       </c>
       <c r="C8" t="s">
         <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>537</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -2429,7 +2415,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
@@ -2446,10 +2432,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>564</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>538</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -2474,10 +2463,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>564</v>
       </c>
       <c r="C12" t="s">
         <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -2493,6 +2485,9 @@
       <c r="C13" t="s">
         <v>60</v>
       </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
@@ -2548,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2602,7 +2597,7 @@
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2611,20 +2606,20 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="F20" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2665,7 +2660,7 @@
         <v>72</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2685,7 +2680,7 @@
         <v>72</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2705,7 +2700,7 @@
         <v>72</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2725,7 +2720,7 @@
         <v>72</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2745,7 +2740,7 @@
         <v>72</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2753,7 +2748,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>63</v>
@@ -2765,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2785,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2799,13 +2794,13 @@
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2825,7 +2820,7 @@
         <v>73</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2845,7 +2840,7 @@
         <v>73</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2865,7 +2860,7 @@
         <v>73</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2885,7 +2880,7 @@
         <v>73</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2905,7 +2900,7 @@
         <v>73</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2925,7 +2920,7 @@
         <v>73</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2947,10 +2942,10 @@
     </row>
     <row r="37" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>62</v>
@@ -2959,10 +2954,10 @@
         <v>1</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>14</v>
@@ -3030,10 +3025,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -3044,16 +3039,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -3075,16 +3070,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -3092,10 +3087,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="C6" t="s">
         <v>59</v>
@@ -3115,7 +3110,7 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3132,7 +3127,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3154,10 +3149,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="B10" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="C10" t="s">
         <v>202</v>
@@ -3177,7 +3172,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -3213,16 +3208,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -3258,16 +3253,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B17" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -3275,10 +3270,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B18" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C18" t="s">
         <v>202</v>
@@ -3298,7 +3293,7 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -3329,7 +3324,7 @@
         <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -3337,10 +3332,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B22" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="C22" t="s">
         <v>202</v>
@@ -3360,7 +3355,7 @@
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -3368,10 +3363,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B24" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="C24" t="s">
         <v>202</v>
@@ -3382,16 +3377,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="B25" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -3399,10 +3394,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B26" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C26" t="s">
         <v>60</v>
@@ -3413,10 +3408,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="B27" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C27" t="s">
         <v>59</v>
@@ -3427,16 +3422,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B28" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -3444,16 +3439,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B29" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -3461,10 +3456,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B30" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
@@ -3478,10 +3473,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B31" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -3492,10 +3487,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
@@ -3520,10 +3515,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B34" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="C34" t="s">
         <v>60</v>
@@ -3593,10 +3588,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -3607,16 +3602,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -3624,10 +3619,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -3638,16 +3633,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -3655,10 +3650,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -3714,10 +3709,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -3728,10 +3723,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="C3" t="s">
         <v>202</v>
@@ -3742,10 +3737,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="B4" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="C4" t="s">
         <v>202</v>
@@ -3756,10 +3751,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="C5" t="s">
         <v>202</v>
@@ -3770,10 +3765,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C6" t="s">
         <v>202</v>
@@ -3784,10 +3779,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="C7" t="s">
         <v>202</v>
@@ -3798,16 +3793,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="B8" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3815,16 +3810,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="B9" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -3890,16 +3885,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3921,10 +3916,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -3935,10 +3930,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -3949,16 +3944,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B6" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -3966,16 +3961,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3983,16 +3978,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="B8" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4000,16 +3995,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -4017,16 +4012,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B10" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4043,7 +4038,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4059,7 +4054,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4108,24 +4103,24 @@
         <v>9</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4147,10 +4142,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -4161,10 +4156,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -4175,24 +4170,27 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="B6" t="s">
-        <v>475</v>
+        <v>564</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
       </c>
+      <c r="E6" t="s">
+        <v>241</v>
+      </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="B7" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -4206,10 +4204,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B8" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
@@ -4223,16 +4221,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="B9" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="E9" t="s">
         <v>241</v>
@@ -4243,16 +4241,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4260,16 +4258,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="C11" t="s">
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4277,16 +4275,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4294,16 +4292,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="B13" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4311,16 +4309,16 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B14" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4331,13 +4329,13 @@
         <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="E15" t="s">
         <v>241</v>
@@ -4362,10 +4360,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="B17" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
@@ -4388,10 +4386,10 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="K18" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="L18" t="s">
         <v>80</v>
@@ -4406,8 +4404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4415,7 +4413,7 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -4459,13 +4457,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4546,6 +4544,9 @@
       <c r="C6" t="s">
         <v>202</v>
       </c>
+      <c r="E6" t="s">
+        <v>181</v>
+      </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
@@ -4560,6 +4561,9 @@
       <c r="C7" t="s">
         <v>59</v>
       </c>
+      <c r="E7" t="s">
+        <v>181</v>
+      </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
@@ -4575,7 +4579,10 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>553</v>
+        <v>539</v>
+      </c>
+      <c r="E8" t="s">
+        <v>181</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4603,7 +4610,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>59</v>
@@ -4612,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4702,6 +4709,9 @@
       <c r="C15" t="s">
         <v>59</v>
       </c>
+      <c r="E15" t="s">
+        <v>181</v>
+      </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
@@ -4831,7 +4841,7 @@
         <v>91</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>61</v>
@@ -4846,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4880,7 +4890,7 @@
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="E24" t="s">
         <v>181</v>
@@ -4977,7 +4987,7 @@
         <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
@@ -4997,7 +5007,7 @@
         <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
@@ -5025,6 +5035,9 @@
       <c r="D31" t="s">
         <v>206</v>
       </c>
+      <c r="E31" t="s">
+        <v>181</v>
+      </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
@@ -5074,13 +5087,13 @@
         <v>103</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="E34" t="s">
         <v>181</v>
@@ -5094,7 +5107,7 @@
         <v>104</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>61</v>
@@ -5154,7 +5167,7 @@
         <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -5166,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -5174,13 +5187,13 @@
         <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C39" t="s">
         <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="E39" t="s">
         <v>181</v>
@@ -5189,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5237,7 +5250,7 @@
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>564</v>
       </c>
       <c r="C42" t="s">
         <v>60</v>
@@ -5251,22 +5264,22 @@
         <v>112</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="F43" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5288,16 +5301,16 @@
         <v>114</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>509</v>
-      </c>
       <c r="E45" s="6" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="F45" s="6" t="b">
         <v>0</v>
@@ -5322,16 +5335,16 @@
         <v>116</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="F47" s="6" t="b">
         <v>0</v>
@@ -5356,16 +5369,16 @@
         <v>118</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="F49" s="6" t="b">
         <v>0</v>
@@ -5390,16 +5403,16 @@
         <v>120</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="F51" s="6" t="b">
         <v>0</v>
@@ -5424,16 +5437,16 @@
         <v>122</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="F53" s="6" t="b">
         <v>0</v>
@@ -5458,16 +5471,16 @@
         <v>124</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="F55" s="6" t="b">
         <v>0</v>
@@ -5492,7 +5505,7 @@
         <v>126</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>61</v>
@@ -5501,7 +5514,7 @@
         <v>64</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="F57" s="6" t="b">
         <v>0</v>
@@ -5535,7 +5548,7 @@
         <v>64</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F59" s="6" t="b">
         <v>0</v>
@@ -5560,7 +5573,7 @@
         <v>130</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>61</v>
@@ -5569,7 +5582,7 @@
         <v>64</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="F61" s="6" t="b">
         <v>0</v>
@@ -5603,7 +5616,7 @@
         <v>64</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="F63" s="6" t="b">
         <v>0</v>
@@ -5628,7 +5641,7 @@
         <v>134</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>61</v>
@@ -5637,7 +5650,7 @@
         <v>64</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="F65" s="6" t="b">
         <v>0</v>
@@ -5671,7 +5684,7 @@
         <v>64</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="F67" s="6" t="b">
         <v>0</v>
@@ -5705,7 +5718,7 @@
         <v>64</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="F69" s="6" t="b">
         <v>0</v>
@@ -5736,13 +5749,13 @@
         <v>61</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="F71" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="72" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5750,13 +5763,16 @@
         <v>141</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>64</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="F72" s="4" t="b">
         <v>0</v>
@@ -5767,10 +5783,13 @@
         <v>142</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>202</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="F73" s="4" t="b">
         <v>0</v>
@@ -5781,13 +5800,16 @@
         <v>143</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>64</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="F74" s="4" t="b">
         <v>0</v>
@@ -5804,7 +5826,7 @@
         <v>61</v>
       </c>
       <c r="D75" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="E75" t="s">
         <v>181</v>
@@ -5915,16 +5937,19 @@
         <v>149</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>149</v>
+        <v>564</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="E81" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="F81" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5941,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -5975,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -6121,7 +6146,7 @@
         <v>160</v>
       </c>
       <c r="B94" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="C94" t="s">
         <v>202</v>
@@ -6141,13 +6166,13 @@
         <v>61</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="F95" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6167,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -6251,7 +6276,7 @@
         <v>168</v>
       </c>
       <c r="B102" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="C102" t="s">
         <v>61</v>
@@ -6271,7 +6296,7 @@
         <v>169</v>
       </c>
       <c r="B103" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="C103" t="s">
         <v>60</v>
@@ -6291,7 +6316,7 @@
         <v>170</v>
       </c>
       <c r="B104" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="C104" t="s">
         <v>59</v>
@@ -6303,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -6362,13 +6387,16 @@
         <v>174</v>
       </c>
       <c r="B108" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C108" t="s">
         <v>61</v>
       </c>
       <c r="D108" t="s">
-        <v>572</v>
+        <v>557</v>
+      </c>
+      <c r="E108" t="s">
+        <v>181</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -6388,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
     </row>
     <row r="110" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6405,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
     </row>
     <row r="111" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6419,13 +6447,13 @@
         <v>61</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="F111" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="112" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6439,7 +6467,7 @@
         <v>61</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="F112" s="6" t="b">
         <v>0</v>
@@ -6473,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="115" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6490,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6507,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6524,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="118" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6541,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="119" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6558,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6575,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6592,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="122" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6609,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="123" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6626,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="124" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6643,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="125" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6660,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="M125" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="126" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6677,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="M126" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="127" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6694,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="128" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6711,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="M128" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="129" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6728,15 +6756,15 @@
         <v>0</v>
       </c>
       <c r="M129" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="C130" t="s">
         <v>62</v>
@@ -6745,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="K130" s="11" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="L130" s="8" t="s">
         <v>79</v>
@@ -6753,10 +6781,10 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="C131" t="s">
         <v>62</v>
@@ -6765,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="K131" s="11" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="L131" s="8" t="s">
         <v>79</v>
@@ -6773,10 +6801,10 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="C132" t="s">
         <v>62</v>
@@ -6785,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="K132" s="11" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="L132" s="8" t="s">
         <v>79</v>
@@ -6793,10 +6821,10 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="C133" t="s">
         <v>62</v>
@@ -6805,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="K133" s="11" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="L133" s="8" t="s">
         <v>79</v>
@@ -6813,10 +6841,10 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="C134" t="s">
         <v>62</v>
@@ -6825,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="K134" s="11" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="L134" s="8" t="s">
         <v>79</v>
@@ -6833,10 +6861,10 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="C135" t="s">
         <v>62</v>
@@ -6845,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="K135" s="11" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="L135" s="8" t="s">
         <v>79</v>
@@ -6853,10 +6881,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="C136" t="s">
         <v>62</v>
@@ -6865,7 +6893,7 @@
         <v>1</v>
       </c>
       <c r="K136" s="11" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="L136" s="8" t="s">
         <v>79</v>
@@ -6873,10 +6901,10 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="C137" t="s">
         <v>62</v>
@@ -6885,7 +6913,7 @@
         <v>1</v>
       </c>
       <c r="K137" s="11" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="L137" s="8" t="s">
         <v>79</v>
@@ -6893,10 +6921,10 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="C138" t="s">
         <v>62</v>
@@ -6905,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="K138" s="11" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="L138" s="8" t="s">
         <v>79</v>
@@ -6913,10 +6941,10 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="C139" t="s">
         <v>62</v>
@@ -6925,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="K139" s="11" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="L139" s="8" t="s">
         <v>79</v>
@@ -6933,10 +6961,10 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="C140" t="s">
         <v>62</v>
@@ -6945,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="11" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="L140" s="8" t="s">
         <v>79</v>
@@ -6953,10 +6981,10 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="C141" t="s">
         <v>62</v>
@@ -6965,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="K141" s="11" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="L141" s="8" t="s">
         <v>79</v>
@@ -6973,10 +7001,10 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="C142" t="s">
         <v>62</v>
@@ -6985,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="K142" s="11" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="L142" s="8" t="s">
         <v>79</v>
@@ -6993,10 +7021,10 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="C143" t="s">
         <v>62</v>
@@ -7005,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="K143" s="11" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="L143" s="8" t="s">
         <v>79</v>
@@ -7095,7 +7123,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7214,7 +7242,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -7250,7 +7278,7 @@
         <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>568</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
@@ -7264,10 +7292,13 @@
         <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>566</v>
       </c>
       <c r="C10" t="s">
         <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>241</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7278,7 +7309,7 @@
         <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
         <v>59</v>
@@ -7292,7 +7323,7 @@
         <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>567</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -7306,10 +7337,13 @@
         <v>228</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>566</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>241</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -7320,7 +7354,7 @@
         <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -7334,7 +7368,7 @@
         <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>250</v>
+        <v>567</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -7348,10 +7382,13 @@
         <v>231</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>566</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>241</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -7362,7 +7399,7 @@
         <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -7376,7 +7413,7 @@
         <v>233</v>
       </c>
       <c r="B18" t="s">
-        <v>253</v>
+        <v>567</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -7390,10 +7427,13 @@
         <v>234</v>
       </c>
       <c r="B19" t="s">
-        <v>254</v>
+        <v>566</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>241</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -7404,7 +7444,7 @@
         <v>235</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
@@ -7418,13 +7458,13 @@
         <v>236</v>
       </c>
       <c r="B21" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="E21" t="s">
         <v>241</v>
@@ -7438,7 +7478,7 @@
         <v>237</v>
       </c>
       <c r="B22" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
@@ -7450,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -7512,15 +7552,15 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -7531,10 +7571,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -7545,10 +7585,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -7571,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -7584,7 +7624,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7634,10 +7674,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -7648,16 +7688,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7679,16 +7719,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -7696,10 +7736,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -7710,16 +7750,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -7727,10 +7767,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
@@ -7741,7 +7781,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -7761,10 +7801,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
@@ -7775,10 +7815,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -7798,7 +7838,7 @@
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E12" t="s">
         <v>181</v>
@@ -7809,7 +7849,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -7817,13 +7857,16 @@
       <c r="C13" t="s">
         <v>202</v>
       </c>
+      <c r="E13" t="s">
+        <v>181</v>
+      </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -7846,7 +7889,7 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>569</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -7854,7 +7897,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B16" t="s">
         <v>181</v>
@@ -7871,10 +7914,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
@@ -7885,10 +7928,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -7899,10 +7942,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B19" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C19" t="s">
         <v>202</v>
@@ -7913,10 +7956,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B20" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C20" t="s">
         <v>202</v>
@@ -7927,16 +7970,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B21" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C21" t="s">
         <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -7951,7 +7994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -8002,18 +8045,18 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -8021,16 +8064,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -8057,24 +8100,24 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
@@ -8082,24 +8125,24 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B8" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
@@ -8107,10 +8150,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B10" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
@@ -8118,10 +8161,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B11" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
@@ -8129,24 +8172,24 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -8154,24 +8197,24 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -8179,52 +8222,52 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
@@ -8232,24 +8275,24 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B21" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -8257,24 +8300,24 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B22" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C22" t="s">
         <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B23" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
@@ -8282,24 +8325,24 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B24" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C24" t="s">
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B25" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -8307,7 +8350,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B26" t="s">
         <v>184</v>
@@ -8316,15 +8359,15 @@
         <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B27" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C27" t="s">
         <v>60</v>
@@ -8332,24 +8375,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B28" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
@@ -8357,24 +8400,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -8382,24 +8425,24 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C32" t="s">
         <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C33" t="s">
         <v>59</v>
@@ -8407,10 +8450,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C34" t="s">
         <v>59</v>
@@ -8418,24 +8461,24 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C36" t="s">
         <v>202</v>
@@ -8452,26 +8495,26 @@
         <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C38" t="s">
         <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B39" t="s">
         <v>181</v>
@@ -8482,10 +8525,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -8496,18 +8539,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -8518,18 +8561,18 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -8540,18 +8583,18 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -8562,18 +8605,18 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -8584,18 +8627,18 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -8606,18 +8649,18 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -8628,18 +8671,18 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -8650,18 +8693,18 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -8672,18 +8715,18 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -8694,18 +8737,18 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -8716,18 +8759,18 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -8738,24 +8781,24 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -8819,10 +8862,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -8833,16 +8876,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -8878,7 +8921,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -8904,7 +8947,7 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -8969,7 +9012,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -9000,7 +9043,7 @@
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -9017,7 +9060,7 @@
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -9025,16 +9068,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B15" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -9042,7 +9085,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -9056,7 +9099,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B17" t="s">
         <v>89</v>
@@ -9065,7 +9108,7 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -9073,7 +9116,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B18" t="s">
         <v>188</v>
@@ -9082,7 +9125,7 @@
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -9090,7 +9133,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B19" t="s">
         <v>187</v>
@@ -9099,7 +9142,7 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -9107,7 +9150,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B20" t="s">
         <v>88</v>
@@ -9116,7 +9159,7 @@
         <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -9124,10 +9167,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B21" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -9208,7 +9251,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B27" t="s">
         <v>195</v>
@@ -9245,7 +9288,7 @@
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -9262,7 +9305,7 @@
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -9270,16 +9313,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B31" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -9296,7 +9339,7 @@
         <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -9313,7 +9356,7 @@
         <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -9324,7 +9367,7 @@
         <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
@@ -9333,7 +9376,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -9341,13 +9384,13 @@
         <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -9364,7 +9407,7 @@
         <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -9381,7 +9424,7 @@
         <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -9397,10 +9440,23 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -9434,15 +9490,15 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -9476,7 +9532,7 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -9484,10 +9540,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -9498,7 +9554,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -9512,7 +9568,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -9526,7 +9582,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -9535,13 +9591,13 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -9555,7 +9611,7 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -9577,10 +9633,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -9591,16 +9647,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -9608,16 +9664,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
         <v>368</v>
-      </c>
-      <c r="B13" t="s">
-        <v>375</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>381</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -9625,16 +9681,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
         <v>369</v>
-      </c>
-      <c r="B14" t="s">
-        <v>376</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>382</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -9642,16 +9698,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -9659,16 +9715,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -9676,16 +9732,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="B17" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -9693,16 +9749,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -9710,16 +9766,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B19" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C19" t="s">
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -9735,7 +9791,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9786,10 +9842,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -9800,16 +9856,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -9820,7 +9876,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -9831,7 +9887,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -9839,16 +9895,22 @@
       <c r="C5" t="s">
         <v>63</v>
       </c>
+      <c r="E5" t="s">
+        <v>251</v>
+      </c>
       <c r="F5" t="b">
         <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -9859,21 +9921,24 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B7" t="s">
-        <v>397</v>
+        <v>564</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
       </c>
+      <c r="E7" t="s">
+        <v>251</v>
+      </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -9881,13 +9946,19 @@
       <c r="C8" t="s">
         <v>63</v>
       </c>
+      <c r="E8" t="s">
+        <v>251</v>
+      </c>
       <c r="F8" t="b">
         <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -9895,22 +9966,28 @@
       <c r="C9" t="s">
         <v>60</v>
       </c>
+      <c r="E9" t="s">
+        <v>251</v>
+      </c>
       <c r="F9" t="b">
         <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B10" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -9918,16 +9995,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C11" t="s">
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -9935,16 +10012,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
         <v>391</v>
-      </c>
-      <c r="B12" t="s">
-        <v>400</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>405</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -9952,16 +10029,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B13" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -9969,16 +10046,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B14" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -9986,7 +10063,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B15" t="s">
         <v>175</v>
@@ -9995,7 +10072,7 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -10017,10 +10094,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="B17" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -10031,16 +10108,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="B18" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>

--- a/examples/oucru/oucru-md/resources/outputs/templates/ccfgs_md_data_fixed.xlsx
+++ b/examples/oucru/oucru-md/resources/outputs/templates/ccfgs_md_data_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-md\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDDC78F-9680-49A1-9A11-455BD0915FC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34F112C-7474-47DC-9B17-04C0656D28B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="600" windowWidth="23730" windowHeight="16470" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25680" yWindow="1530" windowWidth="23730" windowHeight="16470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MD_lab" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="570">
   <si>
     <t>from_name</t>
   </si>
@@ -628,9 +628,6 @@
     <t>heart_sound</t>
   </si>
   <si>
-    <t>heart_sound_description</t>
-  </si>
-  <si>
     <t>respiratory_rate</t>
   </si>
   <si>
@@ -1754,6 +1751,9 @@
   </si>
   <si>
     <t>{2: 2, 1: 1, 8: 8, 3: 3, 9: 9}</t>
+  </si>
+  <si>
+    <t>heart_sound_abnormal_description</t>
   </si>
 </sst>
 </file>
@@ -2221,7 +2221,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,13 +2273,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>60</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2373,7 +2373,7 @@
         <v>67</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2381,7 +2381,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>62</v>
@@ -2398,13 +2398,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C8" t="s">
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
@@ -2432,13 +2432,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C12" t="s">
         <v>60</v>
@@ -2485,9 +2485,6 @@
       <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
@@ -2543,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2597,7 +2594,7 @@
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2660,7 +2657,7 @@
         <v>72</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2680,7 +2677,7 @@
         <v>72</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2700,7 +2697,7 @@
         <v>72</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2720,7 +2717,7 @@
         <v>72</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2740,7 +2737,7 @@
         <v>72</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2748,7 +2745,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>63</v>
@@ -2760,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2780,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2794,13 +2791,13 @@
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2820,7 +2817,7 @@
         <v>73</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2840,7 +2837,7 @@
         <v>73</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2860,7 +2857,7 @@
         <v>73</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2880,7 +2877,7 @@
         <v>73</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2900,7 +2897,7 @@
         <v>73</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2920,7 +2917,7 @@
         <v>73</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2942,10 +2939,10 @@
     </row>
     <row r="37" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>62</v>
@@ -2954,10 +2951,10 @@
         <v>1</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>14</v>
@@ -3025,13 +3022,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3039,16 +3036,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -3070,16 +3067,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -3087,10 +3084,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C6" t="s">
         <v>59</v>
@@ -3110,7 +3107,7 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3127,7 +3124,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3149,13 +3146,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -3172,7 +3169,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -3186,7 +3183,7 @@
         <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -3208,16 +3205,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -3253,16 +3250,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -3270,13 +3267,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -3293,7 +3290,7 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -3324,7 +3321,7 @@
         <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -3332,13 +3329,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -3355,7 +3352,7 @@
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -3363,13 +3360,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -3377,16 +3374,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -3394,10 +3391,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C26" t="s">
         <v>60</v>
@@ -3408,10 +3405,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C27" t="s">
         <v>59</v>
@@ -3422,16 +3419,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -3439,16 +3436,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -3456,16 +3453,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -3473,10 +3470,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -3487,10 +3484,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
@@ -3515,10 +3512,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C34" t="s">
         <v>60</v>
@@ -3588,13 +3585,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3602,16 +3599,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -3619,10 +3616,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -3633,16 +3630,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -3650,10 +3647,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B6" t="s">
         <v>430</v>
-      </c>
-      <c r="B6" t="s">
-        <v>431</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -3709,13 +3706,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3723,13 +3720,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -3737,13 +3734,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -3751,13 +3748,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -3765,13 +3762,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -3779,13 +3776,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3793,16 +3790,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3810,16 +3807,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -3885,16 +3882,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3916,10 +3913,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -3930,10 +3927,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -3944,16 +3941,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -3961,16 +3958,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3978,16 +3975,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3995,16 +3992,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -4012,16 +4009,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4038,7 +4035,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4053,7 +4050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -4103,24 +4100,24 @@
         <v>9</v>
       </c>
       <c r="K1" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>468</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4142,10 +4139,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -4156,10 +4153,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -4170,16 +4167,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -4187,16 +4184,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -4204,16 +4201,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -4221,19 +4218,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -4241,16 +4238,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4258,16 +4255,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C11" t="s">
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4275,16 +4272,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4292,16 +4289,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4309,16 +4306,16 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4329,16 +4326,16 @@
         <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -4360,10 +4357,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
@@ -4374,10 +4371,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -4386,10 +4383,10 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L18" t="s">
         <v>80</v>
@@ -4404,8 +4401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4457,13 +4454,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>469</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4511,7 +4508,7 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -4542,7 +4539,7 @@
         <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
         <v>181</v>
@@ -4579,7 +4576,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E8" t="s">
         <v>181</v>
@@ -4610,7 +4607,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>59</v>
@@ -4619,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4639,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -4659,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -4841,7 +4838,7 @@
         <v>91</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>61</v>
@@ -4856,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4890,7 +4887,7 @@
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E24" t="s">
         <v>181</v>
@@ -4930,7 +4927,7 @@
         <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E26" t="s">
         <v>181</v>
@@ -4939,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -4959,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -4979,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -4987,7 +4984,7 @@
         <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
@@ -4999,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -5007,13 +5004,13 @@
         <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E30" t="s">
         <v>181</v>
@@ -5027,13 +5024,13 @@
         <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>194</v>
+        <v>569</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E31" t="s">
         <v>181</v>
@@ -5047,7 +5044,7 @@
         <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
@@ -5059,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5067,7 +5064,7 @@
         <v>102</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>61</v>
@@ -5087,13 +5084,13 @@
         <v>103</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E34" t="s">
         <v>181</v>
@@ -5107,7 +5104,7 @@
         <v>104</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>61</v>
@@ -5127,7 +5124,7 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s">
         <v>61</v>
@@ -5147,7 +5144,7 @@
         <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C37" t="s">
         <v>61</v>
@@ -5167,7 +5164,7 @@
         <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -5179,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -5187,13 +5184,13 @@
         <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C39" t="s">
         <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E39" t="s">
         <v>181</v>
@@ -5202,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5230,13 +5227,13 @@
         <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s">
         <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E41" t="s">
         <v>181</v>
@@ -5250,7 +5247,7 @@
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C42" t="s">
         <v>60</v>
@@ -5264,22 +5261,22 @@
         <v>112</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F43" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5301,16 +5298,16 @@
         <v>114</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F45" s="6" t="b">
         <v>0</v>
@@ -5335,16 +5332,16 @@
         <v>116</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F47" s="6" t="b">
         <v>0</v>
@@ -5369,16 +5366,16 @@
         <v>118</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>495</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>496</v>
       </c>
       <c r="F49" s="6" t="b">
         <v>0</v>
@@ -5403,16 +5400,16 @@
         <v>120</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F51" s="6" t="b">
         <v>0</v>
@@ -5437,16 +5434,16 @@
         <v>122</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F53" s="6" t="b">
         <v>0</v>
@@ -5471,16 +5468,16 @@
         <v>124</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F55" s="6" t="b">
         <v>0</v>
@@ -5505,7 +5502,7 @@
         <v>126</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>61</v>
@@ -5514,7 +5511,7 @@
         <v>64</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F57" s="6" t="b">
         <v>0</v>
@@ -5548,7 +5545,7 @@
         <v>64</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F59" s="6" t="b">
         <v>0</v>
@@ -5573,7 +5570,7 @@
         <v>130</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>61</v>
@@ -5582,7 +5579,7 @@
         <v>64</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F61" s="6" t="b">
         <v>0</v>
@@ -5616,7 +5613,7 @@
         <v>64</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F63" s="6" t="b">
         <v>0</v>
@@ -5641,7 +5638,7 @@
         <v>134</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>61</v>
@@ -5650,7 +5647,7 @@
         <v>64</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F65" s="6" t="b">
         <v>0</v>
@@ -5684,7 +5681,7 @@
         <v>64</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F67" s="6" t="b">
         <v>0</v>
@@ -5718,7 +5715,7 @@
         <v>64</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F69" s="6" t="b">
         <v>0</v>
@@ -5749,13 +5746,13 @@
         <v>61</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F71" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="72" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5763,7 +5760,7 @@
         <v>141</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>61</v>
@@ -5783,10 +5780,10 @@
         <v>142</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>181</v>
@@ -5800,7 +5797,7 @@
         <v>143</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>61</v>
@@ -5826,7 +5823,7 @@
         <v>61</v>
       </c>
       <c r="D75" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E75" t="s">
         <v>181</v>
@@ -5886,7 +5883,7 @@
         <v>61</v>
       </c>
       <c r="D78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E78" t="s">
         <v>181</v>
@@ -5929,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5937,7 +5934,7 @@
         <v>149</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>60</v>
@@ -5949,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="82" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5966,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -5974,7 +5971,7 @@
         <v>151</v>
       </c>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C83" t="s">
         <v>61</v>
@@ -5991,7 +5988,7 @@
         <v>152</v>
       </c>
       <c r="B84" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C84" t="s">
         <v>59</v>
@@ -6000,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -6073,7 +6070,7 @@
         <v>61</v>
       </c>
       <c r="D89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -6087,7 +6084,7 @@
         <v>156</v>
       </c>
       <c r="C90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -6146,10 +6143,10 @@
         <v>160</v>
       </c>
       <c r="B94" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
@@ -6166,13 +6163,13 @@
         <v>61</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F95" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="96" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6192,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -6234,7 +6231,7 @@
         <v>165</v>
       </c>
       <c r="C99" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
@@ -6265,7 +6262,7 @@
         <v>167</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F101" t="b">
         <v>0</v>
@@ -6276,7 +6273,7 @@
         <v>168</v>
       </c>
       <c r="B102" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C102" t="s">
         <v>61</v>
@@ -6296,7 +6293,7 @@
         <v>169</v>
       </c>
       <c r="B103" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C103" t="s">
         <v>60</v>
@@ -6316,7 +6313,7 @@
         <v>170</v>
       </c>
       <c r="B104" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C104" t="s">
         <v>59</v>
@@ -6328,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -6342,7 +6339,7 @@
         <v>61</v>
       </c>
       <c r="D105" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F105" t="b">
         <v>0</v>
@@ -6359,7 +6356,7 @@
         <v>61</v>
       </c>
       <c r="D106" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F106" t="b">
         <v>0</v>
@@ -6376,7 +6373,7 @@
         <v>61</v>
       </c>
       <c r="D107" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F107" t="b">
         <v>0</v>
@@ -6387,13 +6384,13 @@
         <v>174</v>
       </c>
       <c r="B108" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C108" t="s">
         <v>61</v>
       </c>
       <c r="D108" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E108" t="s">
         <v>181</v>
@@ -6410,13 +6407,13 @@
         <v>175</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F109" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="110" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6427,13 +6424,13 @@
         <v>176</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F110" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="111" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6447,13 +6444,13 @@
         <v>61</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F111" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="112" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6467,7 +6464,7 @@
         <v>61</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F112" s="6" t="b">
         <v>0</v>
@@ -6501,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="115" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6518,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6535,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6552,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6569,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="119" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6586,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6603,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6620,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="122" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6637,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="123" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6654,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="124" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6671,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="125" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6688,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="M125" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="126" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6705,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="M126" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="127" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6722,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="128" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6739,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="M128" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="129" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6756,15 +6753,15 @@
         <v>0</v>
       </c>
       <c r="M129" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C130" t="s">
         <v>62</v>
@@ -6773,7 +6770,7 @@
         <v>1</v>
       </c>
       <c r="K130" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L130" s="8" t="s">
         <v>79</v>
@@ -6781,10 +6778,10 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C131" t="s">
         <v>62</v>
@@ -6793,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="K131" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L131" s="8" t="s">
         <v>79</v>
@@ -6801,10 +6798,10 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C132" t="s">
         <v>62</v>
@@ -6813,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="K132" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L132" s="8" t="s">
         <v>79</v>
@@ -6821,10 +6818,10 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C133" t="s">
         <v>62</v>
@@ -6833,7 +6830,7 @@
         <v>1</v>
       </c>
       <c r="K133" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L133" s="8" t="s">
         <v>79</v>
@@ -6841,10 +6838,10 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C134" t="s">
         <v>62</v>
@@ -6853,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="K134" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L134" s="8" t="s">
         <v>79</v>
@@ -6861,10 +6858,10 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C135" t="s">
         <v>62</v>
@@ -6873,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="K135" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L135" s="8" t="s">
         <v>79</v>
@@ -6881,10 +6878,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C136" t="s">
         <v>62</v>
@@ -6893,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="K136" s="11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L136" s="8" t="s">
         <v>79</v>
@@ -6901,10 +6898,10 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C137" t="s">
         <v>62</v>
@@ -6913,7 +6910,7 @@
         <v>1</v>
       </c>
       <c r="K137" s="11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L137" s="8" t="s">
         <v>79</v>
@@ -6921,10 +6918,10 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C138" t="s">
         <v>62</v>
@@ -6933,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="K138" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L138" s="8" t="s">
         <v>79</v>
@@ -6941,10 +6938,10 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C139" t="s">
         <v>62</v>
@@ -6953,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="K139" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L139" s="8" t="s">
         <v>79</v>
@@ -6961,10 +6958,10 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C140" t="s">
         <v>62</v>
@@ -6973,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L140" s="8" t="s">
         <v>79</v>
@@ -6981,10 +6978,10 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C141" t="s">
         <v>62</v>
@@ -6993,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="K141" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L141" s="8" t="s">
         <v>79</v>
@@ -7001,10 +6998,10 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C142" t="s">
         <v>62</v>
@@ -7013,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="K142" s="11" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L142" s="8" t="s">
         <v>79</v>
@@ -7021,10 +7018,10 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C143" t="s">
         <v>62</v>
@@ -7033,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="K143" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L143" s="8" t="s">
         <v>79</v>
@@ -7174,10 +7171,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -7188,10 +7185,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -7202,13 +7199,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -7216,7 +7213,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
@@ -7230,10 +7227,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -7242,15 +7239,15 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
@@ -7261,10 +7258,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
@@ -7275,10 +7272,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
@@ -7289,16 +7286,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C10" t="s">
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -7306,10 +7303,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C11" t="s">
         <v>59</v>
@@ -7320,10 +7317,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -7334,16 +7331,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -7351,10 +7348,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -7365,10 +7362,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -7379,16 +7376,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -7396,10 +7393,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -7410,10 +7407,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -7424,16 +7421,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -7441,10 +7438,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C20" t="s">
         <v>63</v>
@@ -7455,19 +7452,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -7475,22 +7472,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -7552,18 +7549,18 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -7571,10 +7568,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -7585,10 +7582,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -7599,10 +7596,10 @@
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>63</v>
@@ -7611,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -7674,13 +7671,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -7688,16 +7685,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7719,16 +7716,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -7736,10 +7733,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -7750,16 +7747,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -7767,10 +7764,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
@@ -7781,7 +7778,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -7801,10 +7798,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
@@ -7815,10 +7812,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -7838,7 +7835,7 @@
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E12" t="s">
         <v>181</v>
@@ -7849,13 +7846,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" t="s">
         <v>181</v>
@@ -7866,7 +7863,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -7889,7 +7886,7 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -7897,7 +7894,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B16" t="s">
         <v>181</v>
@@ -7914,10 +7911,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
@@ -7928,10 +7925,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
@@ -7942,13 +7939,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -7956,13 +7953,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -7970,16 +7967,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C21" t="s">
         <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -8045,35 +8042,35 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -8100,24 +8097,24 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
@@ -8125,24 +8122,24 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
         <v>481</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
@@ -8150,10 +8147,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
@@ -8161,10 +8158,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
@@ -8172,24 +8169,24 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -8197,24 +8194,24 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -8222,52 +8219,52 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
@@ -8275,24 +8272,24 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -8300,24 +8297,24 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C22" t="s">
         <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
@@ -8325,24 +8322,24 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C24" t="s">
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -8350,7 +8347,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B26" t="s">
         <v>184</v>
@@ -8359,15 +8356,15 @@
         <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C27" t="s">
         <v>60</v>
@@ -8375,24 +8372,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C29" t="s">
         <v>59</v>
@@ -8400,24 +8397,24 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -8425,24 +8422,24 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C32" t="s">
         <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C33" t="s">
         <v>59</v>
@@ -8450,10 +8447,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C34" t="s">
         <v>59</v>
@@ -8461,27 +8458,27 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -8495,26 +8492,26 @@
         <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C38" t="s">
         <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B39" t="s">
         <v>181</v>
@@ -8525,10 +8522,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -8539,18 +8536,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -8561,18 +8558,18 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -8583,18 +8580,18 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -8605,18 +8602,18 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -8627,18 +8624,18 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -8649,18 +8646,18 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -8671,18 +8668,18 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -8693,18 +8690,18 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -8715,18 +8712,18 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -8737,18 +8734,18 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -8759,18 +8756,18 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -8781,24 +8778,24 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -8862,13 +8859,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -8876,16 +8873,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -8921,7 +8918,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -8947,7 +8944,7 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -8967,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -8984,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -9012,7 +9009,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -9043,7 +9040,7 @@
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -9060,7 +9057,7 @@
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -9068,16 +9065,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -9085,7 +9082,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -9099,7 +9096,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B17" t="s">
         <v>89</v>
@@ -9108,7 +9105,7 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -9116,7 +9113,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B18" t="s">
         <v>188</v>
@@ -9125,7 +9122,7 @@
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -9133,7 +9130,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B19" t="s">
         <v>187</v>
@@ -9142,7 +9139,7 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -9150,7 +9147,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B20" t="s">
         <v>88</v>
@@ -9159,7 +9156,7 @@
         <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -9167,10 +9164,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -9251,10 +9248,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C27" t="s">
         <v>60</v>
@@ -9288,7 +9285,7 @@
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -9305,7 +9302,7 @@
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -9313,16 +9310,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -9333,13 +9330,13 @@
         <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C32" t="s">
         <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -9350,13 +9347,13 @@
         <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C33" t="s">
         <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -9367,7 +9364,7 @@
         <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C34" t="s">
         <v>63</v>
@@ -9376,7 +9373,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -9384,13 +9381,13 @@
         <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -9407,7 +9404,7 @@
         <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -9418,13 +9415,13 @@
         <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
         <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -9440,7 +9437,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9490,18 +9487,18 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -9532,7 +9529,7 @@
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -9540,10 +9537,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -9554,7 +9551,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -9568,7 +9565,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -9582,7 +9579,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -9591,13 +9588,13 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -9611,7 +9608,7 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -9619,10 +9616,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C10" t="s">
         <v>63</v>
@@ -9633,10 +9630,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -9647,16 +9644,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -9664,16 +9661,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -9681,16 +9678,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -9698,16 +9695,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -9715,16 +9712,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -9732,16 +9729,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -9749,16 +9746,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -9766,16 +9763,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C19" t="s">
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -9791,13 +9788,13 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -9842,13 +9839,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -9856,16 +9853,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -9887,7 +9884,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -9896,7 +9893,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -9907,10 +9904,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -9921,16 +9918,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -9938,16 +9935,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -9958,7 +9955,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -9967,7 +9964,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -9978,16 +9975,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -9995,16 +9992,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C11" t="s">
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -10012,16 +10009,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -10029,16 +10026,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -10046,16 +10043,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -10063,7 +10060,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B15" t="s">
         <v>175</v>
@@ -10072,7 +10069,7 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -10080,10 +10077,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -10094,10 +10091,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -10108,16 +10105,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>

--- a/examples/oucru/oucru-md/resources/outputs/templates/ccfgs_md_data_fixed.xlsx
+++ b/examples/oucru/oucru-md/resources/outputs/templates/ccfgs_md_data_fixed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelda\Desktop\repositories\github\datablend\main\examples\oucru\oucru-md\resources\outputs\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34F112C-7474-47DC-9B17-04C0656D28B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E44A3D-CDDB-4CFB-B476-0753CDBF0D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25680" yWindow="1530" windowWidth="23730" windowHeight="16470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MD_lab" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="569">
   <si>
     <t>from_name</t>
   </si>
@@ -1276,9 +1276,6 @@
     <t>picu date</t>
   </si>
   <si>
-    <t>final diagnosis</t>
-  </si>
-  <si>
     <t>iv fluids given</t>
   </si>
   <si>
@@ -1579,9 +1576,6 @@
     <t>parental_fluid</t>
   </si>
   <si>
-    <t>parental_fluid_volumne</t>
-  </si>
-  <si>
     <t>parental_fluid_period</t>
   </si>
   <si>
@@ -1754,6 +1748,9 @@
   </si>
   <si>
     <t>heart_sound_abnormal_description</t>
+  </si>
+  <si>
+    <t>diagnosis_final</t>
   </si>
 </sst>
 </file>
@@ -2273,13 +2270,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>467</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2341,7 +2338,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>60</v>
@@ -2353,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2373,7 +2370,7 @@
         <v>67</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2381,7 +2378,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>62</v>
@@ -2398,13 +2395,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C8" t="s">
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -2415,7 +2412,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
@@ -2432,13 +2429,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -2463,7 +2460,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C12" t="s">
         <v>60</v>
@@ -2540,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2594,7 +2591,7 @@
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -2657,7 +2654,7 @@
         <v>72</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2677,7 +2674,7 @@
         <v>72</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2697,7 +2694,7 @@
         <v>72</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2717,7 +2714,7 @@
         <v>72</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2737,7 +2734,7 @@
         <v>72</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2745,7 +2742,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>63</v>
@@ -2757,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2777,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2791,13 +2788,13 @@
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2817,7 +2814,7 @@
         <v>73</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2837,7 +2834,7 @@
         <v>73</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2857,7 +2854,7 @@
         <v>73</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2877,7 +2874,7 @@
         <v>73</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2897,7 +2894,7 @@
         <v>73</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -2917,7 +2914,7 @@
         <v>73</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2939,10 +2936,10 @@
     </row>
     <row r="37" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>62</v>
@@ -2951,10 +2948,10 @@
         <v>1</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>14</v>
@@ -2971,7 +2968,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3076,7 +3073,7 @@
         <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -3107,7 +3104,7 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3124,7 +3121,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3149,10 +3146,13 @@
         <v>394</v>
       </c>
       <c r="B10" t="s">
-        <v>410</v>
+        <v>568</v>
       </c>
       <c r="C10" t="s">
         <v>201</v>
+      </c>
+      <c r="E10" t="s">
+        <v>181</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -3214,7 +3214,7 @@
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -3259,7 +3259,7 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -3321,7 +3321,7 @@
         <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -3377,13 +3377,13 @@
         <v>400</v>
       </c>
       <c r="B25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>401</v>
       </c>
       <c r="B26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C26" t="s">
         <v>60</v>
@@ -3408,7 +3408,7 @@
         <v>402</v>
       </c>
       <c r="B27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C27" t="s">
         <v>59</v>
@@ -3422,13 +3422,13 @@
         <v>403</v>
       </c>
       <c r="B28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -3439,13 +3439,13 @@
         <v>404</v>
       </c>
       <c r="B29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -3456,7 +3456,7 @@
         <v>405</v>
       </c>
       <c r="B30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
@@ -3473,7 +3473,7 @@
         <v>406</v>
       </c>
       <c r="B31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -3487,7 +3487,7 @@
         <v>263</v>
       </c>
       <c r="B32" t="s">
-        <v>263</v>
+        <v>181</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
@@ -3515,7 +3515,7 @@
         <v>407</v>
       </c>
       <c r="B34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C34" t="s">
         <v>60</v>
@@ -3647,10 +3647,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" t="s">
         <v>429</v>
-      </c>
-      <c r="B6" t="s">
-        <v>430</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -3706,10 +3706,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C2" t="s">
         <v>201</v>
@@ -3720,10 +3720,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C3" t="s">
         <v>201</v>
@@ -3734,10 +3734,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C4" t="s">
         <v>201</v>
@@ -3748,10 +3748,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C5" t="s">
         <v>201</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C6" t="s">
         <v>201</v>
@@ -3776,10 +3776,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C7" t="s">
         <v>201</v>
@@ -3790,16 +3790,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3807,16 +3807,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -3891,7 +3891,7 @@
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -3941,16 +3941,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -3958,16 +3958,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -3975,16 +3975,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -3992,16 +3992,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -4009,16 +4009,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4100,10 +4100,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>467</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4117,7 +4117,7 @@
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4167,10 +4167,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -4184,10 +4184,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -4201,10 +4201,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
@@ -4218,16 +4218,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
         <v>522</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>524</v>
       </c>
       <c r="E9" t="s">
         <v>240</v>
@@ -4238,16 +4238,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -4255,16 +4255,16 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C11" t="s">
         <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -4272,16 +4272,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -4289,16 +4289,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -4306,16 +4306,16 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -4326,13 +4326,13 @@
         <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E15" t="s">
         <v>240</v>
@@ -4357,10 +4357,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
@@ -4383,10 +4383,10 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L18" t="s">
         <v>80</v>
@@ -4401,8 +4401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4454,13 +4454,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>468</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4576,7 +4576,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E8" t="s">
         <v>181</v>
@@ -4607,7 +4607,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>59</v>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4838,7 +4838,7 @@
         <v>91</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>61</v>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4887,7 +4887,7 @@
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E24" t="s">
         <v>181</v>
@@ -4984,7 +4984,7 @@
         <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
@@ -5004,7 +5004,7 @@
         <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
@@ -5024,7 +5024,7 @@
         <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
@@ -5084,13 +5084,13 @@
         <v>103</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E34" t="s">
         <v>181</v>
@@ -5104,7 +5104,7 @@
         <v>104</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>61</v>
@@ -5190,7 +5190,7 @@
         <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E39" t="s">
         <v>181</v>
@@ -5247,7 +5247,7 @@
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C42" t="s">
         <v>60</v>
@@ -5267,16 +5267,16 @@
         <v>61</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F43" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5298,16 +5298,16 @@
         <v>114</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F45" s="6" t="b">
         <v>0</v>
@@ -5332,16 +5332,16 @@
         <v>116</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F47" s="6" t="b">
         <v>0</v>
@@ -5366,16 +5366,16 @@
         <v>118</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>494</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="F49" s="6" t="b">
         <v>0</v>
@@ -5400,16 +5400,16 @@
         <v>120</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F51" s="6" t="b">
         <v>0</v>
@@ -5434,16 +5434,16 @@
         <v>122</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F53" s="6" t="b">
         <v>0</v>
@@ -5474,10 +5474,10 @@
         <v>61</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F55" s="6" t="b">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>126</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>61</v>
@@ -5511,7 +5511,7 @@
         <v>64</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F57" s="6" t="b">
         <v>0</v>
@@ -5545,7 +5545,7 @@
         <v>64</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F59" s="6" t="b">
         <v>0</v>
@@ -5579,7 +5579,7 @@
         <v>64</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F61" s="6" t="b">
         <v>0</v>
@@ -5613,7 +5613,7 @@
         <v>64</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F63" s="6" t="b">
         <v>0</v>
@@ -5638,7 +5638,7 @@
         <v>134</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>61</v>
@@ -5647,7 +5647,7 @@
         <v>64</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F65" s="6" t="b">
         <v>0</v>
@@ -5681,7 +5681,7 @@
         <v>64</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F67" s="6" t="b">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>64</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F69" s="6" t="b">
         <v>0</v>
@@ -5746,13 +5746,13 @@
         <v>61</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F71" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="72" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5760,7 +5760,7 @@
         <v>141</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>61</v>
@@ -5780,7 +5780,7 @@
         <v>142</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>201</v>
@@ -5797,7 +5797,7 @@
         <v>143</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>61</v>
@@ -5823,7 +5823,7 @@
         <v>61</v>
       </c>
       <c r="D75" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E75" t="s">
         <v>181</v>
@@ -5934,7 +5934,7 @@
         <v>149</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>60</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="82" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -5997,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -6143,7 +6143,7 @@
         <v>160</v>
       </c>
       <c r="B94" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C94" t="s">
         <v>201</v>
@@ -6163,13 +6163,13 @@
         <v>61</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F95" s="4" t="b">
         <v>0</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="96" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -6273,7 +6273,7 @@
         <v>168</v>
       </c>
       <c r="B102" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C102" t="s">
         <v>61</v>
@@ -6293,7 +6293,7 @@
         <v>169</v>
       </c>
       <c r="B103" t="s">
-        <v>511</v>
+        <v>47</v>
       </c>
       <c r="C103" t="s">
         <v>60</v>
@@ -6313,7 +6313,7 @@
         <v>170</v>
       </c>
       <c r="B104" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C104" t="s">
         <v>59</v>
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -6384,13 +6384,13 @@
         <v>174</v>
       </c>
       <c r="B108" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C108" t="s">
         <v>61</v>
       </c>
       <c r="D108" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E108" t="s">
         <v>181</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="110" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="111" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6444,13 +6444,13 @@
         <v>61</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F111" s="6" t="b">
         <v>0</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="112" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6464,7 +6464,7 @@
         <v>61</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F112" s="6" t="b">
         <v>0</v>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="115" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6515,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="118" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6566,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="119" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="122" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="123" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="124" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="125" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="M125" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="126" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="M126" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="127" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="128" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="M128" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="129" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -6753,15 +6753,15 @@
         <v>0</v>
       </c>
       <c r="M129" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C130" t="s">
         <v>62</v>
@@ -6770,7 +6770,7 @@
         <v>1</v>
       </c>
       <c r="K130" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L130" s="8" t="s">
         <v>79</v>
@@ -6778,10 +6778,10 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C131" t="s">
         <v>62</v>
@@ -6790,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="K131" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="L131" s="8" t="s">
         <v>79</v>
@@ -6798,10 +6798,10 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C132" t="s">
         <v>62</v>
@@ -6810,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="K132" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L132" s="8" t="s">
         <v>79</v>
@@ -6818,10 +6818,10 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C133" t="s">
         <v>62</v>
@@ -6830,7 +6830,7 @@
         <v>1</v>
       </c>
       <c r="K133" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L133" s="8" t="s">
         <v>79</v>
@@ -6838,10 +6838,10 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C134" t="s">
         <v>62</v>
@@ -6850,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="K134" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L134" s="8" t="s">
         <v>79</v>
@@ -6858,10 +6858,10 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C135" t="s">
         <v>62</v>
@@ -6870,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="K135" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L135" s="8" t="s">
         <v>79</v>
@@ -6878,10 +6878,10 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C136" t="s">
         <v>62</v>
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="K136" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L136" s="8" t="s">
         <v>79</v>
@@ -6898,10 +6898,10 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C137" t="s">
         <v>62</v>
@@ -6910,7 +6910,7 @@
         <v>1</v>
       </c>
       <c r="K137" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="L137" s="8" t="s">
         <v>79</v>
@@ -6918,10 +6918,10 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C138" t="s">
         <v>62</v>
@@ -6930,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="K138" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L138" s="8" t="s">
         <v>79</v>
@@ -6938,10 +6938,10 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C139" t="s">
         <v>62</v>
@@ -6950,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="K139" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L139" s="8" t="s">
         <v>79</v>
@@ -6958,10 +6958,10 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C140" t="s">
         <v>62</v>
@@ -6970,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="K140" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L140" s="8" t="s">
         <v>79</v>
@@ -6978,10 +6978,10 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C141" t="s">
         <v>62</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="K141" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L141" s="8" t="s">
         <v>79</v>
@@ -6998,10 +6998,10 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C142" t="s">
         <v>62</v>
@@ -7010,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="K142" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L142" s="8" t="s">
         <v>79</v>
@@ -7018,10 +7018,10 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C143" t="s">
         <v>62</v>
@@ -7030,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="K143" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L143" s="8" t="s">
         <v>79</v>
@@ -7239,7 +7239,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -7275,7 +7275,7 @@
         <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
@@ -7289,7 +7289,7 @@
         <v>224</v>
       </c>
       <c r="B10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C10" t="s">
         <v>59</v>
@@ -7320,7 +7320,7 @@
         <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -7334,7 +7334,7 @@
         <v>227</v>
       </c>
       <c r="B13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -7365,7 +7365,7 @@
         <v>229</v>
       </c>
       <c r="B15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C15" t="s">
         <v>63</v>
@@ -7379,7 +7379,7 @@
         <v>230</v>
       </c>
       <c r="B16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
@@ -7410,7 +7410,7 @@
         <v>232</v>
       </c>
       <c r="B18" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -7424,7 +7424,7 @@
         <v>233</v>
       </c>
       <c r="B19" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
@@ -7461,7 +7461,7 @@
         <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E21" t="s">
         <v>240</v>
@@ -7549,7 +7549,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -7608,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -7621,7 +7621,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7886,7 +7886,7 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -8042,10 +8042,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -8106,7 +8106,7 @@
         <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -8125,13 +8125,13 @@
         <v>280</v>
       </c>
       <c r="B8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
         <v>480</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -8275,7 +8275,7 @@
         <v>292</v>
       </c>
       <c r="B20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
@@ -8522,10 +8522,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -8544,10 +8544,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -8566,10 +8566,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -8588,10 +8588,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -8610,10 +8610,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -8632,10 +8632,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -8654,10 +8654,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -8676,10 +8676,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -8698,10 +8698,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -8720,10 +8720,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -8742,10 +8742,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -8764,10 +8764,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -8786,10 +8786,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>289</v>
@@ -9487,7 +9487,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -9594,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -9921,7 +9921,7 @@
         <v>374</v>
       </c>
       <c r="B7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
